--- a/test/output/data_summary_properties_2016.xlsx
+++ b/test/output/data_summary_properties_2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>column</t>
   </si>
@@ -26,12 +26,18 @@
     <t>type</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>parcelid</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
+    <t>Ok</t>
+  </si>
+  <si>
     <t>airconditioningtypeid</t>
   </si>
   <si>
@@ -410,16 +416,19 @@
     <t>15/2973780</t>
   </si>
   <si>
+    <t>SFR2*</t>
+  </si>
+  <si>
+    <t>5638/1978629</t>
+  </si>
+  <si>
+    <t>LAR1</t>
+  </si>
+  <si>
+    <t>LAR3</t>
+  </si>
+  <si>
     <t>LARS</t>
-  </si>
-  <si>
-    <t>5638/1978629</t>
-  </si>
-  <si>
-    <t>LAR1</t>
-  </si>
-  <si>
-    <t>LAR3</t>
   </si>
   <si>
     <t>LBR1N</t>
@@ -1755,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1764,480 +1773,658 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25" r="0" spans="1:2"/>
-    <row customHeight="1" ht="25" r="1" spans="1:2">
+    <row customHeight="1" ht="25" r="0" spans="1:3"/>
+    <row customHeight="1" ht="25" r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="3" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row customHeight="1" ht="25" r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row customHeight="1" ht="25" r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row customHeight="1" ht="25" r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row customHeight="1" ht="25" r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row customHeight="1" ht="25" r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row customHeight="1" ht="25" r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row customHeight="1" ht="25" r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row customHeight="1" ht="25" r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row customHeight="1" ht="25" r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row customHeight="1" ht="25" r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row customHeight="1" ht="25" r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row customHeight="1" ht="25" r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row customHeight="1" ht="25" r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row customHeight="1" ht="25" r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row customHeight="1" ht="25" r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row customHeight="1" ht="25" r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row customHeight="1" ht="25" r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row customHeight="1" ht="25" r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row customHeight="1" ht="25" r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2259,7 +2446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25.5"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="33"/>
   </cols>
   <sheetData>
@@ -2269,20 +2456,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>11396469</v>
+        <v>14653188</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0</v>
@@ -2290,18 +2477,18 @@
     </row>
     <row customHeight="1" ht="25" r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="6" spans="1:2">
@@ -2393,20 +2580,20 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>60379201.151</v>
+        <v>60590636.013001</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7" t="n">
         <v>0.003831212270330767</v>
@@ -2414,18 +2601,18 @@
     </row>
     <row customHeight="1" ht="25" r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="21" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="22" spans="1:2">
@@ -2517,20 +2704,20 @@
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>60377005021002</v>
+        <v>60375036011007</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B35" s="7" t="n">
         <v>0.02516600970716702</v>
@@ -2538,18 +2725,18 @@
     </row>
     <row customHeight="1" ht="25" r="36" spans="1:2">
       <c r="A36" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="37" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" spans="1:2">
@@ -2682,7 +2869,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="42"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -2693,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1089</v>
+        <v>817</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -2712,7 +2899,7 @@
     </row>
     <row customHeight="1" ht="35" r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.9994546460106585</v>
@@ -2721,16 +2908,16 @@
     </row>
     <row customHeight="1" ht="35" r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20</v>
@@ -2739,7 +2926,7 @@
     </row>
     <row customHeight="1" ht="35" r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>646.8832923832924</v>
@@ -2748,7 +2935,7 @@
     </row>
     <row customHeight="1" ht="35" r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>534</v>
@@ -2757,7 +2944,7 @@
     </row>
     <row customHeight="1" ht="35" r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B8" s="16" t="n">
         <v>8516</v>
@@ -2774,15 +2961,15 @@
         <v>0</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="n">
         <v>2</v>
@@ -2793,7 +2980,7 @@
     </row>
     <row customHeight="1" ht="35" r="12" spans="1:3">
       <c r="A12" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="n">
         <v>0.003839586870904192</v>
@@ -2802,16 +2989,16 @@
     </row>
     <row customHeight="1" ht="35" r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0</v>
@@ -2820,7 +3007,7 @@
     </row>
     <row customHeight="1" ht="35" r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>2.209142733681826</v>
@@ -2829,7 +3016,7 @@
     </row>
     <row customHeight="1" ht="35" r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>2</v>
@@ -2838,7 +3025,7 @@
     </row>
     <row customHeight="1" ht="35" r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>20</v>
@@ -2855,18 +3042,18 @@
         <v>0</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="20" spans="1:3">
       <c r="A20" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="14" t="n">
         <v/>
@@ -2874,7 +3061,7 @@
     </row>
     <row customHeight="1" ht="35" r="21" spans="1:3">
       <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" s="3" t="n">
         <v>0.003835567062628948</v>
@@ -2883,16 +3070,16 @@
     </row>
     <row customHeight="1" ht="35" r="22" spans="1:3">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0</v>
@@ -2901,7 +3088,7 @@
     </row>
     <row customHeight="1" ht="35" r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>3.088948797938776</v>
@@ -2910,7 +3097,7 @@
     </row>
     <row customHeight="1" ht="35" r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>3</v>
@@ -2919,7 +3106,7 @@
     </row>
     <row customHeight="1" ht="35" r="26" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>20</v>
@@ -2936,18 +3123,18 @@
         <v>0</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="29" spans="1:3">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="14" t="n">
         <v/>
@@ -2955,7 +3142,7 @@
     </row>
     <row customHeight="1" ht="35" r="30" spans="1:3">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="n">
         <v>0.0431834603648579</v>
@@ -2964,16 +3151,16 @@
     </row>
     <row customHeight="1" ht="35" r="31" spans="1:3">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
@@ -2982,7 +3169,7 @@
     </row>
     <row customHeight="1" ht="35" r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>2.299262508730685</v>
@@ -2991,7 +3178,7 @@
     </row>
     <row customHeight="1" ht="35" r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>2</v>
@@ -3000,7 +3187,7 @@
     </row>
     <row customHeight="1" ht="35" r="35" spans="1:3">
       <c r="A35" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>20</v>
@@ -3017,18 +3204,18 @@
         <v>0</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="38" spans="1:3">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2016</v>
+        <v>1070</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -3036,7 +3223,7 @@
     </row>
     <row customHeight="1" ht="35" r="39" spans="1:3">
       <c r="A39" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B39" s="3" t="n">
         <v>0.9320930438222749</v>
@@ -3045,16 +3232,16 @@
     </row>
     <row customHeight="1" ht="35" r="40" spans="1:3">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>3</v>
@@ -3063,7 +3250,7 @@
     </row>
     <row customHeight="1" ht="35" r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>1380.630396069397</v>
@@ -3072,7 +3259,7 @@
     </row>
     <row customHeight="1" ht="35" r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>1283</v>
@@ -3081,7 +3268,7 @@
     </row>
     <row customHeight="1" ht="35" r="44" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>31303</v>
@@ -3098,18 +3285,18 @@
         <v>0</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="47" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1576</v>
+        <v>1130</v>
       </c>
       <c r="C47" s="14" t="n">
         <v/>
@@ -3117,7 +3304,7 @@
     </row>
     <row customHeight="1" ht="35" r="48" spans="1:3">
       <c r="A48" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="3" t="n">
         <v>0.01861338723449585</v>
@@ -3126,16 +3313,16 @@
     </row>
     <row customHeight="1" ht="35" r="49" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>1</v>
@@ -3144,7 +3331,7 @@
     </row>
     <row customHeight="1" ht="35" r="51" spans="1:3">
       <c r="A51" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1827.162123692507</v>
@@ -3153,7 +3340,7 @@
     </row>
     <row customHeight="1" ht="35" r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>1572</v>
@@ -3162,7 +3349,7 @@
     </row>
     <row customHeight="1" ht="35" r="53" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>952576</v>
@@ -3179,18 +3366,18 @@
         <v>0</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="56" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1973</v>
+        <v>1598</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -3198,7 +3385,7 @@
     </row>
     <row customHeight="1" ht="35" r="57" spans="1:3">
       <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3" t="n">
         <v>0.0924666448033761</v>
@@ -3207,16 +3394,16 @@
     </row>
     <row customHeight="1" ht="35" r="58" spans="1:3">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>1</v>
@@ -3225,7 +3412,7 @@
     </row>
     <row customHeight="1" ht="35" r="60" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>1760.00060793213</v>
@@ -3234,7 +3421,7 @@
     </row>
     <row customHeight="1" ht="35" r="61" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>1539</v>
@@ -3243,7 +3430,7 @@
     </row>
     <row customHeight="1" ht="35" r="62" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="16" t="n">
         <v>290345</v>
@@ -3260,15 +3447,15 @@
         <v>0</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="65" spans="1:3">
       <c r="A65" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3" t="n">
         <v>1440</v>
@@ -3279,7 +3466,7 @@
     </row>
     <row customHeight="1" ht="35" r="66" spans="1:3">
       <c r="A66" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3" t="n">
         <v>0.9974300025760271</v>
@@ -3288,16 +3475,16 @@
     </row>
     <row customHeight="1" ht="35" r="67" spans="1:3">
       <c r="A67" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C67" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="68" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>120</v>
@@ -3306,7 +3493,7 @@
     </row>
     <row customHeight="1" ht="35" r="69" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>1178.900677789364</v>
@@ -3315,7 +3502,7 @@
     </row>
     <row customHeight="1" ht="35" r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>1296</v>
@@ -3324,7 +3511,7 @@
     </row>
     <row customHeight="1" ht="35" r="71" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="16" t="n">
         <v>2688</v>
@@ -3341,18 +3528,18 @@
         <v>0</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="74" spans="1:3">
       <c r="A74" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>2638</v>
+        <v>2170</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -3360,7 +3547,7 @@
     </row>
     <row customHeight="1" ht="35" r="75" spans="1:3">
       <c r="A75" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B75" s="3" t="n">
         <v>0.9360857183916613</v>
@@ -3369,16 +3556,16 @@
     </row>
     <row customHeight="1" ht="35" r="76" spans="1:3">
       <c r="A76" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C76" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
         <v>112</v>
@@ -3387,7 +3574,7 @@
     </row>
     <row customHeight="1" ht="35" r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>2739.18723466703</v>
@@ -3396,7 +3583,7 @@
     </row>
     <row customHeight="1" ht="35" r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
         <v>2172</v>
@@ -3405,7 +3592,7 @@
     </row>
     <row customHeight="1" ht="35" r="80" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B80" s="16" t="n">
         <v>820242</v>
@@ -3422,18 +3609,18 @@
         <v>0</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="83" spans="1:3">
       <c r="A83" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>2387</v>
+        <v>1808</v>
       </c>
       <c r="C83" s="14" t="n">
         <v/>
@@ -3441,7 +3628,7 @@
     </row>
     <row customHeight="1" ht="35" r="84" spans="1:3">
       <c r="A84" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3" t="n">
         <v>0.9320930438222749</v>
@@ -3450,16 +3637,16 @@
     </row>
     <row customHeight="1" ht="35" r="85" spans="1:3">
       <c r="A85" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C85" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="86" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>3</v>
@@ -3468,7 +3655,7 @@
     </row>
     <row customHeight="1" ht="35" r="87" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3" t="n">
         <v>1388.944577909105</v>
@@ -3477,7 +3664,7 @@
     </row>
     <row customHeight="1" ht="35" r="88" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B88" s="3" t="n">
         <v>1284</v>
@@ -3486,7 +3673,7 @@
     </row>
     <row customHeight="1" ht="35" r="89" spans="1:3">
       <c r="A89" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B89" s="16" t="n">
         <v>31303</v>
@@ -3503,18 +3690,18 @@
         <v>0</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="92" spans="1:3">
       <c r="A92" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>4300</v>
+        <v>4231</v>
       </c>
       <c r="C92" s="14" t="n">
         <v/>
@@ -3522,7 +3709,7 @@
     </row>
     <row customHeight="1" ht="35" r="93" spans="1:3">
       <c r="A93" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B93" s="3" t="n">
         <v>0.9926300165113625</v>
@@ -3531,16 +3718,16 @@
     </row>
     <row customHeight="1" ht="35" r="94" spans="1:3">
       <c r="A94" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="95" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>117</v>
@@ -3549,7 +3736,7 @@
     </row>
     <row customHeight="1" ht="35" r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3" t="n">
         <v>2414.339439116404</v>
@@ -3558,7 +3745,7 @@
     </row>
     <row customHeight="1" ht="35" r="97" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3" t="n">
         <v>1992</v>
@@ -3567,7 +3754,7 @@
     </row>
     <row customHeight="1" ht="35" r="98" spans="1:3">
       <c r="A98" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B98" s="16" t="n">
         <v>952576</v>
@@ -3584,18 +3771,18 @@
         <v>0</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="101" spans="1:3">
       <c r="A101" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="14" t="n">
         <v/>
@@ -3603,7 +3790,7 @@
     </row>
     <row customHeight="1" ht="35" r="102" spans="1:3">
       <c r="A102" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B102" s="3" t="n">
         <v>0.895271600021037</v>
@@ -3612,16 +3799,16 @@
     </row>
     <row customHeight="1" ht="35" r="103" spans="1:3">
       <c r="A103" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C103" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="104" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B104" s="3" t="n">
         <v>1</v>
@@ -3630,7 +3817,7 @@
     </row>
     <row customHeight="1" ht="35" r="105" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B105" s="3" t="n">
         <v>1.168710037519551</v>
@@ -3639,7 +3826,7 @@
     </row>
     <row customHeight="1" ht="35" r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B106" s="3" t="n">
         <v>1</v>
@@ -3648,7 +3835,7 @@
     </row>
     <row customHeight="1" ht="35" r="107" spans="1:3">
       <c r="A107" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B107" s="16" t="n">
         <v>9</v>
@@ -3665,18 +3852,18 @@
         <v>0</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="110" spans="1:3">
       <c r="A110" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="14" t="n">
         <v/>
@@ -3684,7 +3871,7 @@
     </row>
     <row customHeight="1" ht="35" r="111" spans="1:3">
       <c r="A111" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B111" s="3" t="n">
         <v>0.0431834603648579</v>
@@ -3693,16 +3880,16 @@
     </row>
     <row customHeight="1" ht="35" r="112" spans="1:3">
       <c r="A112" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C112" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="113" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B113" s="3" t="n">
         <v>1</v>
@@ -3711,7 +3898,7 @@
     </row>
     <row customHeight="1" ht="35" r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B114" s="3" t="n">
         <v>2.24416510141599</v>
@@ -3720,7 +3907,7 @@
     </row>
     <row customHeight="1" ht="35" r="115" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B115" s="3" t="n">
         <v>2</v>
@@ -3729,7 +3916,7 @@
     </row>
     <row customHeight="1" ht="35" r="116" spans="1:3">
       <c r="A116" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B116" s="16" t="n">
         <v>20</v>
@@ -3746,18 +3933,18 @@
         <v>0</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="119" spans="1:3">
       <c r="A119" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="14" t="n">
         <v/>
@@ -3765,7 +3952,7 @@
     </row>
     <row customHeight="1" ht="35" r="120" spans="1:3">
       <c r="A120" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B120" s="3" t="n">
         <v>0.7041196670124819</v>
@@ -3774,16 +3961,16 @@
     </row>
     <row customHeight="1" ht="35" r="121" spans="1:3">
       <c r="A121" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C121" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B122" s="3" t="n">
         <v>0</v>
@@ -3792,7 +3979,7 @@
     </row>
     <row customHeight="1" ht="35" r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B123" s="3" t="n">
         <v>1.823516558413254</v>
@@ -3801,7 +3988,7 @@
     </row>
     <row customHeight="1" ht="35" r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B124" s="3" t="n">
         <v>2</v>
@@ -3810,7 +3997,7 @@
     </row>
     <row customHeight="1" ht="35" r="125" spans="1:3">
       <c r="A125" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B125" s="16" t="n">
         <v>25</v>
@@ -3827,15 +4014,15 @@
         <v>0</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="128" spans="1:3">
       <c r="A128" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B128" s="3" t="n">
         <v>0</v>
@@ -3846,7 +4033,7 @@
     </row>
     <row customHeight="1" ht="35" r="129" spans="1:3">
       <c r="A129" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B129" s="3" t="n">
         <v>0.7041196670124819</v>
@@ -3855,16 +4042,16 @@
     </row>
     <row customHeight="1" ht="35" r="130" spans="1:3">
       <c r="A130" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C130" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B131" s="3" t="n">
         <v>0</v>
@@ -3873,7 +4060,7 @@
     </row>
     <row customHeight="1" ht="35" r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B132" s="3" t="n">
         <v>383.7693573970272</v>
@@ -3882,7 +4069,7 @@
     </row>
     <row customHeight="1" ht="35" r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B133" s="3" t="n">
         <v>441</v>
@@ -3891,7 +4078,7 @@
     </row>
     <row customHeight="1" ht="35" r="134" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B134" s="16" t="n">
         <v>7749</v>
@@ -3908,18 +4095,18 @@
         <v>0</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="137" spans="1:3">
       <c r="A137" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>33968043</v>
+        <v>34205276</v>
       </c>
       <c r="C137" s="14" t="n">
         <v/>
@@ -3927,7 +4114,7 @@
     </row>
     <row customHeight="1" ht="35" r="138" spans="1:3">
       <c r="A138" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B138" s="3" t="n">
         <v>0.003831212270330767</v>
@@ -3936,16 +4123,16 @@
     </row>
     <row customHeight="1" ht="35" r="139" spans="1:3">
       <c r="A139" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C139" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B140" s="3" t="n">
         <v>33324388</v>
@@ -3954,7 +4141,7 @@
     </row>
     <row customHeight="1" ht="35" r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B141" s="3" t="n">
         <v>34001468.65372119</v>
@@ -3963,7 +4150,7 @@
     </row>
     <row customHeight="1" ht="35" r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B142" s="3" t="n">
         <v>34008249</v>
@@ -3972,7 +4159,7 @@
     </row>
     <row customHeight="1" ht="35" r="143" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B143" s="16" t="n">
         <v>34819650</v>
@@ -3989,18 +4176,18 @@
         <v>0</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="146" spans="1:3">
       <c r="A146" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>-118042859</v>
+        <v>-118084607</v>
       </c>
       <c r="C146" s="14" t="n">
         <v/>
@@ -4008,7 +4195,7 @@
     </row>
     <row customHeight="1" ht="35" r="147" spans="1:3">
       <c r="A147" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B147" s="3" t="n">
         <v>0.003831212270330767</v>
@@ -4017,16 +4204,16 @@
     </row>
     <row customHeight="1" ht="35" r="148" spans="1:3">
       <c r="A148" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C148" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="149" spans="1:3">
       <c r="A149" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B149" s="3" t="n">
         <v>-119475780</v>
@@ -4035,7 +4222,7 @@
     </row>
     <row customHeight="1" ht="35" r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B150" s="3" t="n">
         <v>-118201934.1594264</v>
@@ -4044,7 +4231,7 @@
     </row>
     <row customHeight="1" ht="35" r="151" spans="1:3">
       <c r="A151" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B151" s="3" t="n">
         <v>-118172540.5</v>
@@ -4053,7 +4240,7 @@
     </row>
     <row customHeight="1" ht="35" r="152" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B152" s="16" t="n">
         <v>-117554316</v>
@@ -4070,18 +4257,18 @@
         <v>0</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="155" spans="1:3">
       <c r="A155" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>8924</v>
+        <v>7416</v>
       </c>
       <c r="C155" s="14" t="n">
         <v/>
@@ -4089,7 +4276,7 @@
     </row>
     <row customHeight="1" ht="35" r="156" spans="1:3">
       <c r="A156" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B156" s="3" t="n">
         <v>0.09248875374888994</v>
@@ -4098,16 +4285,16 @@
     </row>
     <row customHeight="1" ht="35" r="157" spans="1:3">
       <c r="A157" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C157" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="158" spans="1:3">
       <c r="A158" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B158" s="3" t="n">
         <v>100</v>
@@ -4116,7 +4303,7 @@
     </row>
     <row customHeight="1" ht="35" r="159" spans="1:3">
       <c r="A159" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B159" s="3" t="n">
         <v>22822.80552774815</v>
@@ -4125,7 +4312,7 @@
     </row>
     <row customHeight="1" ht="35" r="160" spans="1:3">
       <c r="A160" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B160" s="3" t="n">
         <v>7000</v>
@@ -4134,7 +4321,7 @@
     </row>
     <row customHeight="1" ht="35" r="161" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B161" s="16" t="n">
         <v>328263808</v>
@@ -4151,15 +4338,15 @@
         <v>0</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="164" spans="1:3">
       <c r="A164" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B164" s="3" t="n">
         <v>1</v>
@@ -4170,7 +4357,7 @@
     </row>
     <row customHeight="1" ht="35" r="165" spans="1:3">
       <c r="A165" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B165" s="3" t="n">
         <v>0.8266343786733091</v>
@@ -4179,16 +4366,16 @@
     </row>
     <row customHeight="1" ht="35" r="166" spans="1:3">
       <c r="A166" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C166" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="167" spans="1:3">
       <c r="A167" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B167" s="3" t="n">
         <v>1</v>
@@ -4197,7 +4384,7 @@
     </row>
     <row customHeight="1" ht="35" r="168" spans="1:3">
       <c r="A168" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B168" s="3" t="n">
         <v>1</v>
@@ -4206,7 +4393,7 @@
     </row>
     <row customHeight="1" ht="35" r="169" spans="1:3">
       <c r="A169" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B169" s="3" t="n">
         <v>1</v>
@@ -4215,7 +4402,7 @@
     </row>
     <row customHeight="1" ht="35" r="170" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B170" s="16" t="n">
         <v>1</v>
@@ -4232,18 +4419,18 @@
         <v>0</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="173" spans="1:3">
       <c r="A173" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>448</v>
+        <v>800</v>
       </c>
       <c r="C173" s="14" t="n">
         <v/>
@@ -4251,7 +4438,7 @@
     </row>
     <row customHeight="1" ht="35" r="174" spans="1:3">
       <c r="A174" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B174" s="3" t="n">
         <v>0.9906338467186807</v>
@@ -4260,16 +4447,16 @@
     </row>
     <row customHeight="1" ht="35" r="175" spans="1:3">
       <c r="A175" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C175" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="176" spans="1:3">
       <c r="A176" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B176" s="3" t="n">
         <v>19</v>
@@ -4278,7 +4465,7 @@
     </row>
     <row customHeight="1" ht="35" r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B177" s="3" t="n">
         <v>519.7109799713877</v>
@@ -4287,7 +4474,7 @@
     </row>
     <row customHeight="1" ht="35" r="178" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B178" s="3" t="n">
         <v>495</v>
@@ -4296,7 +4483,7 @@
     </row>
     <row customHeight="1" ht="35" r="179" spans="1:3">
       <c r="A179" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B179" s="16" t="n">
         <v>17410</v>
@@ -4313,15 +4500,15 @@
         <v>0</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="182" spans="1:3">
       <c r="A182" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B182" s="3" t="n">
         <v>0</v>
@@ -4332,7 +4519,7 @@
     </row>
     <row customHeight="1" ht="35" r="183" spans="1:3">
       <c r="A183" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B183" s="3" t="n">
         <v>0.003843941663202374</v>
@@ -4341,16 +4528,16 @@
     </row>
     <row customHeight="1" ht="35" r="184" spans="1:3">
       <c r="A184" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C184" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="185" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B185" s="3" t="n">
         <v>0</v>
@@ -4359,7 +4546,7 @@
     </row>
     <row customHeight="1" ht="35" r="186" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B186" s="3" t="n">
         <v>1.475018343891299</v>
@@ -4368,7 +4555,7 @@
     </row>
     <row customHeight="1" ht="35" r="187" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B187" s="3" t="n">
         <v>0</v>
@@ -4377,7 +4564,7 @@
     </row>
     <row customHeight="1" ht="35" r="188" spans="1:3">
       <c r="A188" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B188" s="16" t="n">
         <v>96</v>
@@ -4394,15 +4581,15 @@
         <v>0</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="191" spans="1:3">
       <c r="A191" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B191" s="3" t="n">
         <v>1</v>
@@ -4413,7 +4600,7 @@
     </row>
     <row customHeight="1" ht="35" r="192" spans="1:3">
       <c r="A192" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B192" s="3" t="n">
         <v>0.8956085939481117</v>
@@ -4422,16 +4609,16 @@
     </row>
     <row customHeight="1" ht="35" r="193" spans="1:3">
       <c r="A193" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C193" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B194" s="3" t="n">
         <v>1</v>
@@ -4440,7 +4627,7 @@
     </row>
     <row customHeight="1" ht="35" r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B195" s="3" t="n">
         <v>1.010008632003876</v>
@@ -4449,7 +4636,7 @@
     </row>
     <row customHeight="1" ht="35" r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B196" s="3" t="n">
         <v>1</v>
@@ -4458,7 +4645,7 @@
     </row>
     <row customHeight="1" ht="35" r="197" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B197" s="16" t="n">
         <v>7</v>
@@ -4475,15 +4662,15 @@
         <v>0</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="200" spans="1:3">
       <c r="A200" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B200" s="3" t="n">
         <v>1</v>
@@ -4494,7 +4681,7 @@
     </row>
     <row customHeight="1" ht="35" r="201" spans="1:3">
       <c r="A201" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B201" s="3" t="n">
         <v>0.3375724444822604</v>
@@ -4503,16 +4690,16 @@
     </row>
     <row customHeight="1" ht="35" r="202" spans="1:3">
       <c r="A202" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C202" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B203" s="3" t="n">
         <v>1</v>
@@ -4521,7 +4708,7 @@
     </row>
     <row customHeight="1" ht="35" r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B204" s="3" t="n">
         <v>1.181171080511153</v>
@@ -4530,7 +4717,7 @@
     </row>
     <row customHeight="1" ht="35" r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B205" s="3" t="n">
         <v>1</v>
@@ -4539,7 +4726,7 @@
     </row>
     <row customHeight="1" ht="35" r="206" spans="1:3">
       <c r="A206" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B206" s="16" t="n">
         <v>997</v>
@@ -4556,18 +4743,18 @@
         <v>0</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="209" spans="1:3">
       <c r="A209" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>400</v>
+        <v>616</v>
       </c>
       <c r="C209" s="14" t="n">
         <v/>
@@ -4575,7 +4762,7 @@
     </row>
     <row customHeight="1" ht="35" r="210" spans="1:3">
       <c r="A210" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B210" s="3" t="n">
         <v>0.9730823588368953</v>
@@ -4584,16 +4771,16 @@
     </row>
     <row customHeight="1" ht="35" r="211" spans="1:3">
       <c r="A211" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C211" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="212" spans="1:3">
       <c r="A212" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B212" s="3" t="n">
         <v>10</v>
@@ -4602,7 +4789,7 @@
     </row>
     <row customHeight="1" ht="35" r="213" spans="1:3">
       <c r="A213" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B213" s="3" t="n">
         <v>319.8033974239313</v>
@@ -4611,7 +4798,7 @@
     </row>
     <row customHeight="1" ht="35" r="214" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B214" s="3" t="n">
         <v>270</v>
@@ -4620,7 +4807,7 @@
     </row>
     <row customHeight="1" ht="35" r="215" spans="1:3">
       <c r="A215" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B215" s="16" t="n">
         <v>7983</v>
@@ -4637,18 +4824,18 @@
         <v>0</v>
       </c>
       <c r="B217" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="218" spans="1:3">
       <c r="A218" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="C218" s="14" t="n">
         <v/>
@@ -4656,7 +4843,7 @@
     </row>
     <row customHeight="1" ht="35" r="219" spans="1:3">
       <c r="A219" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B219" s="3" t="n">
         <v>0.9991132972912857</v>
@@ -4665,16 +4852,16 @@
     </row>
     <row customHeight="1" ht="35" r="220" spans="1:3">
       <c r="A220" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C220" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B221" s="3" t="n">
         <v>10</v>
@@ -4683,7 +4870,7 @@
     </row>
     <row customHeight="1" ht="35" r="222" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B222" s="3" t="n">
         <v>278.2965621458255</v>
@@ -4692,7 +4879,7 @@
     </row>
     <row customHeight="1" ht="35" r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B223" s="3" t="n">
         <v>168</v>
@@ -4701,7 +4888,7 @@
     </row>
     <row customHeight="1" ht="35" r="224" spans="1:3">
       <c r="A224" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B224" s="16" t="n">
         <v>6141</v>
@@ -4718,18 +4905,18 @@
         <v>0</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="227" spans="1:3">
       <c r="A227" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C227" s="14" t="n">
         <v/>
@@ -4737,7 +4924,7 @@
     </row>
     <row customHeight="1" ht="35" r="228" spans="1:3">
       <c r="A228" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B228" s="3" t="n">
         <v>0.7715177824593656</v>
@@ -4746,16 +4933,16 @@
     </row>
     <row customHeight="1" ht="35" r="229" spans="1:3">
       <c r="A229" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C229" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B230" s="3" t="n">
         <v>1</v>
@@ -4764,7 +4951,7 @@
     </row>
     <row customHeight="1" ht="35" r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B231" s="3" t="n">
         <v>1.40146378152357</v>
@@ -4773,7 +4960,7 @@
     </row>
     <row customHeight="1" ht="35" r="232" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B232" s="3" t="n">
         <v>1</v>
@@ -4782,7 +4969,7 @@
     </row>
     <row customHeight="1" ht="35" r="233" spans="1:3">
       <c r="A233" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B233" s="16" t="n">
         <v>41</v>
@@ -4799,18 +4986,18 @@
         <v>0</v>
       </c>
       <c r="B235" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="236" spans="1:3">
       <c r="A236" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>53263</v>
+        <v>31627</v>
       </c>
       <c r="C236" s="14" t="n">
         <v/>
@@ -4818,7 +5005,7 @@
     </row>
     <row customHeight="1" ht="35" r="237" spans="1:3">
       <c r="A237" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B237" s="3" t="n">
         <v>0.01841809154912356</v>
@@ -4827,16 +5014,16 @@
     </row>
     <row customHeight="1" ht="35" r="238" spans="1:3">
       <c r="A238" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C238" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="239" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B239" s="3" t="n">
         <v>1</v>
@@ -4845,7 +5032,7 @@
     </row>
     <row customHeight="1" ht="35" r="240" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B240" s="3" t="n">
         <v>170883.5771659952</v>
@@ -4854,7 +5041,7 @@
     </row>
     <row customHeight="1" ht="35" r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B241" s="3" t="n">
         <v>122590</v>
@@ -4863,7 +5050,7 @@
     </row>
     <row customHeight="1" ht="35" r="242" spans="1:3">
       <c r="A242" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B242" s="16" t="n">
         <v>251486000</v>
@@ -4880,18 +5067,18 @@
         <v>0</v>
       </c>
       <c r="B244" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="245" spans="1:3">
       <c r="A245" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B245" s="3" t="n">
-        <v>399751</v>
+        <v>51156</v>
       </c>
       <c r="C245" s="14" t="n">
         <v/>
@@ -4899,7 +5086,7 @@
     </row>
     <row customHeight="1" ht="35" r="246" spans="1:3">
       <c r="A246" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B246" s="3" t="n">
         <v>0.01425357017597046</v>
@@ -4908,16 +5095,16 @@
     </row>
     <row customHeight="1" ht="35" r="247" spans="1:3">
       <c r="A247" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C247" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="248" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B248" s="3" t="n">
         <v>1</v>
@@ -4926,7 +5113,7 @@
     </row>
     <row customHeight="1" ht="35" r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B249" s="3" t="n">
         <v>420478.990678524</v>
@@ -4935,7 +5122,7 @@
     </row>
     <row customHeight="1" ht="35" r="250" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B250" s="3" t="n">
         <v>306086</v>
@@ -4944,7 +5131,7 @@
     </row>
     <row customHeight="1" ht="35" r="251" spans="1:3">
       <c r="A251" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B251" s="16" t="n">
         <v>282786000</v>
@@ -4961,18 +5148,18 @@
         <v>0</v>
       </c>
       <c r="B253" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="254" spans="1:3">
       <c r="A254" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B254" s="3" t="n">
-        <v>67586</v>
+        <v>23225</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -4980,7 +5167,7 @@
     </row>
     <row customHeight="1" ht="35" r="255" spans="1:3">
       <c r="A255" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B255" s="3" t="n">
         <v>0.02268947282559358</v>
@@ -4989,16 +5176,16 @@
     </row>
     <row customHeight="1" ht="35" r="256" spans="1:3">
       <c r="A256" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C256" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B257" s="3" t="n">
         <v>1</v>
@@ -5007,7 +5194,7 @@
     </row>
     <row customHeight="1" ht="35" r="258" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B258" s="3" t="n">
         <v>252478.0294685421</v>
@@ -5016,7 +5203,7 @@
     </row>
     <row customHeight="1" ht="35" r="259" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B259" s="3" t="n">
         <v>167042</v>
@@ -5025,7 +5212,7 @@
     </row>
     <row customHeight="1" ht="35" r="260" spans="1:3">
       <c r="A260" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B260" s="16" t="n">
         <v>90246219</v>
@@ -5042,18 +5229,18 @@
         <v>0</v>
       </c>
       <c r="B262" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="263" spans="1:3">
       <c r="A263" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>2809.53</v>
+        <v>3324.69</v>
       </c>
       <c r="C263" s="14" t="n">
         <v/>
@@ -5061,7 +5248,7 @@
     </row>
     <row customHeight="1" ht="35" r="264" spans="1:3">
       <c r="A264" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B264" s="3" t="n">
         <v>0.01046825071678206</v>
@@ -5070,16 +5257,16 @@
     </row>
     <row customHeight="1" ht="35" r="265" spans="1:3">
       <c r="A265" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C265" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="266" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B266" s="3" t="n">
         <v>1.34</v>
@@ -5088,16 +5275,16 @@
     </row>
     <row customHeight="1" ht="35" r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B267" s="3" t="n">
-        <v>5377.607139338702</v>
+        <v>5377.60713933839</v>
       </c>
       <c r="C267" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B268" s="3" t="n">
         <v>3991.78</v>
@@ -5106,7 +5293,7 @@
     </row>
     <row customHeight="1" ht="35" r="269" spans="1:3">
       <c r="A269" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B269" s="16" t="n">
         <v>3458861.12</v>
@@ -5123,18 +5310,18 @@
         <v>0</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="272" spans="1:3">
       <c r="A272" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B272" s="3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C272" s="14" t="n">
         <v/>
@@ -5142,7 +5329,7 @@
     </row>
     <row customHeight="1" ht="35" r="273" spans="1:3">
       <c r="A273" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B273" s="3" t="n">
         <v>0.9810854621288838</v>
@@ -5151,16 +5338,16 @@
     </row>
     <row customHeight="1" ht="35" r="274" spans="1:3">
       <c r="A274" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C274" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B275" s="3" t="n">
         <v>0</v>
@@ -5169,7 +5356,7 @@
     </row>
     <row customHeight="1" ht="35" r="276" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B276" s="3" t="n">
         <v>13.89240932275432</v>
@@ -5178,7 +5365,7 @@
     </row>
     <row customHeight="1" ht="35" r="277" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B277" s="3" t="n">
         <v>14</v>
@@ -5187,7 +5374,7 @@
     </row>
     <row customHeight="1" ht="35" r="278" spans="1:3">
       <c r="A278" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B278" s="16" t="n">
         <v>99</v>
@@ -5252,7 +5439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="19.5"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
   </cols>
   <sheetData>
@@ -5262,12 +5449,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
         <v>1</v>
@@ -5275,7 +5462,7 @@
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.7281541006901676</v>
@@ -5283,18 +5470,18 @@
     </row>
     <row customHeight="1" ht="25" r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="6" spans="1:2">
@@ -5362,12 +5549,12 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>7</v>
@@ -5375,7 +5562,7 @@
     </row>
     <row customHeight="1" ht="25" r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="7" t="n">
         <v>0.9979696618369787</v>
@@ -5383,18 +5570,18 @@
     </row>
     <row customHeight="1" ht="25" r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="18" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
@@ -5470,12 +5657,12 @@
         <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="7" t="n">
         <v>4</v>
@@ -5483,7 +5670,7 @@
     </row>
     <row customHeight="1" ht="25" r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B30" s="7" t="n">
         <v>0.9957694867743283</v>
@@ -5491,18 +5678,18 @@
     </row>
     <row customHeight="1" ht="25" r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" spans="1:2">
       <c r="A32" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="33" spans="1:2">
@@ -5554,12 +5741,12 @@
         <v>0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>4</v>
@@ -5567,7 +5754,7 @@
     </row>
     <row customHeight="1" ht="25" r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B41" s="7" t="n">
         <v>0.3506374913448503</v>
@@ -5575,18 +5762,18 @@
     </row>
     <row customHeight="1" ht="25" r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="43" spans="1:2">
       <c r="A43" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:2">
@@ -5678,12 +5865,12 @@
         <v>0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B56" s="7" t="n">
         <v>66</v>
@@ -5691,7 +5878,7 @@
     </row>
     <row customHeight="1" ht="25" r="57" spans="1:2">
       <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B57" s="7" t="n">
         <v>0.9942731131438686</v>
@@ -5699,18 +5886,18 @@
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="59" spans="1:2">
       <c r="A59" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="60" spans="1:2">
@@ -5730,20 +5917,20 @@
         <v>0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B63" s="7" t="n">
-        <v>6111</v>
+        <v>6059</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B64" s="7" t="n">
         <v>0.003831212270330767</v>
@@ -5751,18 +5938,18 @@
     </row>
     <row customHeight="1" ht="25" r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="66" spans="1:2">
       <c r="A66" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="67" spans="1:2">
@@ -5798,12 +5985,12 @@
         <v>0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B72" s="7" t="b">
         <v>1</v>
@@ -5811,7 +5998,7 @@
     </row>
     <row customHeight="1" ht="25" r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B73" s="7" t="n">
         <v>0.9768814126410241</v>
@@ -5819,18 +6006,18 @@
     </row>
     <row customHeight="1" ht="25" r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="75" spans="1:2">
       <c r="A75" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="76" spans="1:2">
@@ -5850,20 +6037,20 @@
         <v>0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B79" s="7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B80" s="7" t="n">
         <v>0.3948845259825333</v>
@@ -5871,18 +6058,18 @@
     </row>
     <row customHeight="1" ht="25" r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="82" spans="1:2">
       <c r="A82" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="83" spans="1:2">
@@ -5974,12 +6161,12 @@
         <v>0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B95" s="7" t="n">
         <v>1</v>
@@ -5987,7 +6174,7 @@
     </row>
     <row customHeight="1" ht="25" r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B96" s="7" t="n">
         <v>0.9876260251767291</v>
@@ -5995,18 +6182,18 @@
     </row>
     <row customHeight="1" ht="25" r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="98" spans="1:2">
       <c r="A98" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="99" spans="1:2">
@@ -6026,12 +6213,12 @@
         <v>0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B102" s="7" t="n">
         <v>1</v>
@@ -6039,7 +6226,7 @@
     </row>
     <row customHeight="1" ht="25" r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B103" s="7" t="n">
         <v>0.9892553874642949</v>
@@ -6047,18 +6234,18 @@
     </row>
     <row customHeight="1" ht="25" r="104" spans="1:2">
       <c r="A104" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="105" spans="1:2">
       <c r="A105" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="106" spans="1:2">
@@ -6078,12 +6265,12 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="109" spans="1:2">
       <c r="A109" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B109" s="7" t="n">
         <v>1</v>
@@ -6091,7 +6278,7 @@
     </row>
     <row customHeight="1" ht="25" r="110" spans="1:2">
       <c r="A110" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B110" s="7" t="n">
         <v>0.8373789912090143</v>
@@ -6099,18 +6286,18 @@
     </row>
     <row customHeight="1" ht="25" r="111" spans="1:2">
       <c r="A111" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="112" spans="1:2">
       <c r="A112" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="113" spans="1:2">
@@ -6130,20 +6317,20 @@
         <v>0</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="116" spans="1:2">
       <c r="A116" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B117" s="7" t="n">
         <v>0.004112598849597868</v>
@@ -6151,23 +6338,23 @@
     </row>
     <row customHeight="1" ht="25" r="118" spans="1:2">
       <c r="A118" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="119" spans="1:2">
       <c r="A119" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B120" s="7" t="n">
         <v>1153896</v>
@@ -6175,7 +6362,7 @@
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B121" s="7" t="n">
         <v>522145</v>
@@ -6183,7 +6370,7 @@
     </row>
     <row customHeight="1" ht="25" r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B122" s="7" t="n">
         <v>247494</v>
@@ -6191,7 +6378,7 @@
     </row>
     <row customHeight="1" ht="25" r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B123" s="7" t="n">
         <v>225410</v>
@@ -6199,7 +6386,7 @@
     </row>
     <row customHeight="1" ht="25" r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B124" s="7" t="n">
         <v>126491</v>
@@ -6207,7 +6394,7 @@
     </row>
     <row customHeight="1" ht="25" r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B125" s="7" t="n">
         <v>123249</v>
@@ -6215,7 +6402,7 @@
     </row>
     <row customHeight="1" ht="25" r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B126" s="7" t="n">
         <v>104612</v>
@@ -6223,7 +6410,7 @@
     </row>
     <row customHeight="1" ht="25" r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B127" s="7" t="n">
         <v>60503</v>
@@ -6231,7 +6418,7 @@
     </row>
     <row customHeight="1" ht="25" r="128" spans="1:2">
       <c r="A128" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B128" s="7" t="n">
         <v>60167</v>
@@ -6239,7 +6426,7 @@
     </row>
     <row customHeight="1" ht="25" r="129" spans="1:2">
       <c r="A129" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B129" s="11" t="n">
         <v>50978</v>
@@ -6254,20 +6441,20 @@
         <v>0</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B132" s="7" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B133" s="7" t="n">
         <v>0.003831212270330767</v>
@@ -6275,18 +6462,18 @@
     </row>
     <row customHeight="1" ht="25" r="134" spans="1:2">
       <c r="A134" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="135" spans="1:2">
       <c r="A135" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="136" spans="1:2">
@@ -6378,20 +6565,20 @@
         <v>0</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B149" s="7" t="n">
         <v>0.3371908976801352</v>
@@ -6399,23 +6586,23 @@
     </row>
     <row customHeight="1" ht="25" r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="151" spans="1:2">
       <c r="A151" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="7" t="n">
         <v>275029</v>
@@ -6423,7 +6610,7 @@
     </row>
     <row customHeight="1" ht="25" r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B153" s="7" t="n">
         <v>67105</v>
@@ -6431,7 +6618,7 @@
     </row>
     <row customHeight="1" ht="25" r="154" spans="1:2">
       <c r="A154" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B154" s="7" t="n">
         <v>54859</v>
@@ -6439,7 +6626,7 @@
     </row>
     <row customHeight="1" ht="25" r="155" spans="1:2">
       <c r="A155" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B155" s="7" t="n">
         <v>52750</v>
@@ -6447,7 +6634,7 @@
     </row>
     <row customHeight="1" ht="25" r="156" spans="1:2">
       <c r="A156" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B156" s="7" t="n">
         <v>48808</v>
@@ -6455,7 +6642,7 @@
     </row>
     <row customHeight="1" ht="25" r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B157" s="7" t="n">
         <v>39895</v>
@@ -6463,7 +6650,7 @@
     </row>
     <row customHeight="1" ht="25" r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B158" s="7" t="n">
         <v>30459</v>
@@ -6471,7 +6658,7 @@
     </row>
     <row customHeight="1" ht="25" r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B159" s="7" t="n">
         <v>30377</v>
@@ -6479,7 +6666,7 @@
     </row>
     <row customHeight="1" ht="25" r="160" spans="1:2">
       <c r="A160" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B160" s="7" t="n">
         <v>26632</v>
@@ -6487,7 +6674,7 @@
     </row>
     <row customHeight="1" ht="25" r="161" spans="1:2">
       <c r="A161" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B161" s="11" t="n">
         <v>26103</v>
@@ -6502,20 +6689,20 @@
         <v>0</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B164" s="7" t="n">
-        <v>24832</v>
+        <v>12447</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B165" s="7" t="n">
         <v>0.0210520709214774</v>
@@ -6523,18 +6710,18 @@
     </row>
     <row customHeight="1" ht="25" r="166" spans="1:2">
       <c r="A166" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="167" spans="1:2">
       <c r="A167" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="168" spans="1:2">
@@ -6626,12 +6813,12 @@
         <v>0</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B180" s="7" t="n">
         <v>3101</v>
@@ -6639,7 +6826,7 @@
     </row>
     <row customHeight="1" ht="25" r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B181" s="7" t="n">
         <v>0.003831212270330767</v>
@@ -6647,18 +6834,18 @@
     </row>
     <row customHeight="1" ht="25" r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="183" spans="1:2">
       <c r="A183" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="184" spans="1:2">
@@ -6694,20 +6881,20 @@
         <v>0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="189" spans="1:2">
       <c r="A189" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B189" s="7" t="n">
-        <v>274514</v>
+        <v>40215</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="190" spans="1:2">
       <c r="A190" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B190" s="7" t="n">
         <v>0.6126238059075773</v>
@@ -6715,18 +6902,18 @@
     </row>
     <row customHeight="1" ht="25" r="191" spans="1:2">
       <c r="A191" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="192" spans="1:2">
       <c r="A192" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="193" spans="1:2">
@@ -6818,20 +7005,20 @@
         <v>0</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B205" s="7" t="n">
-        <v>96010</v>
+        <v>96007</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B206" s="7" t="n">
         <v>0.004683076640659624</v>
@@ -6839,18 +7026,18 @@
     </row>
     <row customHeight="1" ht="25" r="207" spans="1:2">
       <c r="A207" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="208" spans="1:2">
       <c r="A208" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="209" spans="1:2">
@@ -6942,12 +7129,12 @@
         <v>0</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B221" s="7" t="n">
         <v>7</v>
@@ -6955,7 +7142,7 @@
     </row>
     <row customHeight="1" ht="25" r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B222" s="7" t="n">
         <v>0.9994559859467502</v>
@@ -6963,18 +7150,18 @@
     </row>
     <row customHeight="1" ht="25" r="223" spans="1:2">
       <c r="A223" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="224" spans="1:2">
       <c r="A224" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="225" spans="1:2">
@@ -6994,12 +7181,12 @@
         <v>0</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="228" spans="1:2">
       <c r="A228" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B228" s="7" t="n">
         <v>6</v>
@@ -7007,7 +7194,7 @@
     </row>
     <row customHeight="1" ht="25" r="229" spans="1:2">
       <c r="A229" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B229" s="7" t="n">
         <v>0.9977398627972439</v>
@@ -7015,18 +7202,18 @@
     </row>
     <row customHeight="1" ht="25" r="230" spans="1:2">
       <c r="A230" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="231" spans="1:2">
       <c r="A231" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="232" spans="1:2">
@@ -7078,20 +7265,20 @@
         <v>0</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="239" spans="1:2">
       <c r="A239" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B239" s="7" t="n">
-        <v>1992</v>
+        <v>2008</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="240" spans="1:2">
       <c r="A240" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B240" s="7" t="n">
         <v>0.0200749225265701</v>
@@ -7099,18 +7286,18 @@
     </row>
     <row customHeight="1" ht="25" r="241" spans="1:2">
       <c r="A241" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="242" spans="1:2">
       <c r="A242" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="243" spans="1:2">
@@ -7202,12 +7389,12 @@
         <v>0</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B255" s="7" t="b">
         <v>1</v>
@@ -7215,7 +7402,7 @@
     </row>
     <row customHeight="1" ht="25" r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B256" s="7" t="n">
         <v>0.9982704774895761</v>
@@ -7223,18 +7410,18 @@
     </row>
     <row customHeight="1" ht="25" r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="258" spans="1:2">
       <c r="A258" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="259" spans="1:2">
@@ -7254,12 +7441,12 @@
         <v>0</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B262" s="7" t="n">
         <v>2015</v>
@@ -7267,7 +7454,7 @@
     </row>
     <row customHeight="1" ht="25" r="263" spans="1:2">
       <c r="A263" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B263" s="7" t="n">
         <v>0.00383188223837664</v>
@@ -7275,18 +7462,18 @@
     </row>
     <row customHeight="1" ht="25" r="264" spans="1:2">
       <c r="A264" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="265" spans="1:2">
       <c r="A265" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="266" spans="1:2">
@@ -7378,20 +7565,20 @@
         <v>0</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="278" spans="1:2">
       <c r="A278" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B279" s="7" t="n">
         <v>0.9810861320969296</v>
@@ -7399,23 +7586,23 @@
     </row>
     <row customHeight="1" ht="25" r="280" spans="1:2">
       <c r="A280" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="281" spans="1:2">
       <c r="A281" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="282" spans="1:2">
       <c r="A282" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B282" s="11" t="n">
         <v>56462</v>

--- a/test/output/data_summary_properties_2016.xlsx
+++ b/test/output/data_summary_properties_2016.xlsx
@@ -380,15 +380,15 @@
     <t>1/485459</t>
   </si>
   <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>240/2972940</t>
+  </si>
+  <si>
     <t>0100</t>
   </si>
   <si>
-    <t>240/2972940</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>0101</t>
   </si>
   <si>
@@ -416,7 +416,7 @@
     <t>15/2973780</t>
   </si>
   <si>
-    <t>SFR2*</t>
+    <t>LCA12*</t>
   </si>
   <si>
     <t>5638/1978629</t>
@@ -2464,7 +2464,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>14653188</v>
+        <v>14299040</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>60590636.013001</v>
+        <v>60590525.223005</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>60375036011007</v>
+        <v>60374066013000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
@@ -2891,7 +2891,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>817</v>
+        <v>1766</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -3053,7 +3053,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="14" t="n">
         <v/>
@@ -3215,7 +3215,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1070</v>
+        <v>1546</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -3296,7 +3296,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1130</v>
+        <v>2035</v>
       </c>
       <c r="C47" s="14" t="n">
         <v/>
@@ -3377,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1598</v>
+        <v>4298</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -3458,7 +3458,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1440</v>
+        <v>1120</v>
       </c>
       <c r="C65" s="14" t="n">
         <v/>
@@ -3539,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>2170</v>
+        <v>2270</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -3620,7 +3620,7 @@
         <v>65</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1808</v>
+        <v>1233</v>
       </c>
       <c r="C83" s="14" t="n">
         <v/>
@@ -3701,7 +3701,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>4231</v>
+        <v>926</v>
       </c>
       <c r="C92" s="14" t="n">
         <v/>
@@ -4025,7 +4025,7 @@
         <v>65</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="C128" s="14" t="n">
         <v/>
@@ -4106,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>34205276</v>
+        <v>33713890</v>
       </c>
       <c r="C137" s="14" t="n">
         <v/>
@@ -4187,7 +4187,7 @@
         <v>65</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>-118084607</v>
+        <v>-117900330</v>
       </c>
       <c r="C146" s="14" t="n">
         <v/>
@@ -4268,7 +4268,7 @@
         <v>65</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>7416</v>
+        <v>4800</v>
       </c>
       <c r="C155" s="14" t="n">
         <v/>
@@ -4430,7 +4430,7 @@
         <v>65</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="C173" s="14" t="n">
         <v/>
@@ -4511,7 +4511,7 @@
         <v>65</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C182" s="14" t="n">
         <v/>
@@ -4673,7 +4673,7 @@
         <v>65</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" s="14" t="n">
         <v/>
@@ -4754,7 +4754,7 @@
         <v>65</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>616</v>
+        <v>109</v>
       </c>
       <c r="C209" s="14" t="n">
         <v/>
@@ -4835,7 +4835,7 @@
         <v>65</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="C218" s="14" t="n">
         <v/>
@@ -4916,7 +4916,7 @@
         <v>65</v>
       </c>
       <c r="B227" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="14" t="n">
         <v/>
@@ -4997,7 +4997,7 @@
         <v>65</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>31627</v>
+        <v>452700</v>
       </c>
       <c r="C236" s="14" t="n">
         <v/>
@@ -5078,7 +5078,7 @@
         <v>65</v>
       </c>
       <c r="B245" s="3" t="n">
-        <v>51156</v>
+        <v>72175</v>
       </c>
       <c r="C245" s="14" t="n">
         <v/>
@@ -5159,7 +5159,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="3" t="n">
-        <v>23225</v>
+        <v>16294</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -5240,7 +5240,7 @@
         <v>65</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>3324.69</v>
+        <v>4682.92</v>
       </c>
       <c r="C263" s="14" t="n">
         <v/>
@@ -5321,7 +5321,7 @@
         <v>65</v>
       </c>
       <c r="B272" s="3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C272" s="14" t="n">
         <v/>
@@ -6354,7 +6354,7 @@
     </row>
     <row customHeight="1" ht="25" r="120" spans="1:2">
       <c r="A120" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B120" s="7" t="n">
         <v>1153896</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B121" s="7" t="n">
         <v>522145</v>
@@ -6821,7 +6821,7 @@
         <v>65</v>
       </c>
       <c r="B180" s="7" t="n">
-        <v>3101</v>
+        <v>1286</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="181" spans="1:2">
@@ -6889,7 +6889,7 @@
         <v>65</v>
       </c>
       <c r="B189" s="7" t="n">
-        <v>40215</v>
+        <v>51906</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="190" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>65</v>
       </c>
       <c r="B205" s="7" t="n">
-        <v>96007</v>
+        <v>96181</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="206" spans="1:2">
@@ -7273,7 +7273,7 @@
         <v>65</v>
       </c>
       <c r="B239" s="7" t="n">
-        <v>2008</v>
+        <v>1985</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="240" spans="1:2">

--- a/test/output/data_summary_properties_2016.xlsx
+++ b/test/output/data_summary_properties_2016.xlsx
@@ -380,15 +380,18 @@
     <t>1/485459</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>240/2972940</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
     <t>122</t>
   </si>
   <si>
-    <t>240/2972940</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
     <t>0101</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
     <t>1111</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>0200</t>
   </si>
   <si>
@@ -416,7 +416,7 @@
     <t>15/2973780</t>
   </si>
   <si>
-    <t>LCA12*</t>
+    <t>LARE11</t>
   </si>
   <si>
     <t>5638/1978629</t>
@@ -1773,8 +1773,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="0" spans="1:3"/>
@@ -2446,7 +2446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="25.5"/>
     <col customWidth="1" max="2" min="2" width="33"/>
   </cols>
   <sheetData>
@@ -2464,7 +2464,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>14299040</v>
+        <v>14034972</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>60590525.223005</v>
+        <v>60590992.273001</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
@@ -2712,7 +2712,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>60374066013000</v>
+        <v>61110013021012</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
@@ -2824,29 +2824,29 @@
       <c r="B48" s="12" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B15">
+  <conditionalFormatting sqref="B6:B15">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B31">
+  <conditionalFormatting sqref="B22:B31">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1518"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:B47">
+  <conditionalFormatting sqref="B38:B47">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1171"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
@@ -2869,7 +2869,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="18"/>
     <col customWidth="1" max="2" min="2" width="42"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -2891,7 +2891,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1766</v>
+        <v>2048</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -2972,7 +2972,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C11" s="14" t="n">
         <v/>
@@ -3053,7 +3053,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="14" t="n">
         <v/>
@@ -3134,7 +3134,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="14" t="n">
         <v/>
@@ -3215,7 +3215,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1546</v>
+        <v>1107</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -3296,7 +3296,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>2035</v>
+        <v>1160</v>
       </c>
       <c r="C47" s="14" t="n">
         <v/>
@@ -3377,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>4298</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -3539,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>2270</v>
+        <v>2080</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -3620,7 +3620,7 @@
         <v>65</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1233</v>
+        <v>1388</v>
       </c>
       <c r="C83" s="14" t="n">
         <v/>
@@ -3701,7 +3701,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>926</v>
+        <v>4467</v>
       </c>
       <c r="C92" s="14" t="n">
         <v/>
@@ -3944,7 +3944,7 @@
         <v>65</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C119" s="14" t="n">
         <v/>
@@ -4025,7 +4025,7 @@
         <v>65</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="C128" s="14" t="n">
         <v/>
@@ -4106,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>33713890</v>
+        <v>33607600</v>
       </c>
       <c r="C137" s="14" t="n">
         <v/>
@@ -4187,7 +4187,7 @@
         <v>65</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>-117900330</v>
+        <v>-117741000</v>
       </c>
       <c r="C146" s="14" t="n">
         <v/>
@@ -4268,7 +4268,7 @@
         <v>65</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="C155" s="14" t="n">
         <v/>
@@ -4430,7 +4430,7 @@
         <v>65</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C173" s="14" t="n">
         <v/>
@@ -4511,7 +4511,7 @@
         <v>65</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C182" s="14" t="n">
         <v/>
@@ -4673,7 +4673,7 @@
         <v>65</v>
       </c>
       <c r="B200" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C200" s="14" t="n">
         <v/>
@@ -4754,7 +4754,7 @@
         <v>65</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C209" s="14" t="n">
         <v/>
@@ -4835,7 +4835,7 @@
         <v>65</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="C218" s="14" t="n">
         <v/>
@@ -4997,7 +4997,7 @@
         <v>65</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>452700</v>
+        <v>34653</v>
       </c>
       <c r="C236" s="14" t="n">
         <v/>
@@ -5078,7 +5078,7 @@
         <v>65</v>
       </c>
       <c r="B245" s="3" t="n">
-        <v>72175</v>
+        <v>229447</v>
       </c>
       <c r="C245" s="14" t="n">
         <v/>
@@ -5159,7 +5159,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="3" t="n">
-        <v>16294</v>
+        <v>511535</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -5240,7 +5240,7 @@
         <v>65</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>4682.92</v>
+        <v>2204.48</v>
       </c>
       <c r="C263" s="14" t="n">
         <v/>
@@ -5439,7 +5439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="19.5"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
   </cols>
   <sheetData>
@@ -5665,7 +5665,7 @@
         <v>65</v>
       </c>
       <c r="B29" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="30" spans="1:2">
@@ -6362,7 +6362,7 @@
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" s="7" t="n">
         <v>522145</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row customHeight="1" ht="25" r="122" spans="1:2">
       <c r="A122" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="7" t="n">
         <v>247494</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row customHeight="1" ht="25" r="123" spans="1:2">
       <c r="A123" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="7" t="n">
         <v>225410</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row customHeight="1" ht="25" r="124" spans="1:2">
       <c r="A124" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="7" t="n">
         <v>126491</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row customHeight="1" ht="25" r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B125" s="7" t="n">
         <v>123249</v>
@@ -6697,7 +6697,7 @@
         <v>65</v>
       </c>
       <c r="B164" s="7" t="n">
-        <v>12447</v>
+        <v>52650</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="165" spans="1:2">
@@ -6889,7 +6889,7 @@
         <v>65</v>
       </c>
       <c r="B189" s="7" t="n">
-        <v>51906</v>
+        <v>276119</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="190" spans="1:2">
@@ -7013,7 +7013,7 @@
         <v>65</v>
       </c>
       <c r="B205" s="7" t="n">
-        <v>96181</v>
+        <v>97004</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="206" spans="1:2">
@@ -7273,7 +7273,7 @@
         <v>65</v>
       </c>
       <c r="B239" s="7" t="n">
-        <v>1985</v>
+        <v>1979</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="240" spans="1:2">
@@ -7613,218 +7613,218 @@
       <c r="B283" s="12" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:B12">
+  <conditionalFormatting sqref="B6:B12">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="742364"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B26">
+  <conditionalFormatting sqref="B19:B26">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5251"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:B37">
+  <conditionalFormatting sqref="B33:B37">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="9265"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B53">
+  <conditionalFormatting sqref="B44:B53">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1133238"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B60">
+  <conditionalFormatting sqref="B60">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="17096"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:B69">
+  <conditionalFormatting sqref="B67:B69">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2009362"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B76">
+  <conditionalFormatting sqref="B76">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="69014"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B92">
+  <conditionalFormatting sqref="B83:B92">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1156830"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B98:B99">
+  <conditionalFormatting sqref="B99">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="36939"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B106">
+  <conditionalFormatting sqref="B106">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="32075"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B112:B113">
+  <conditionalFormatting sqref="B113">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="485459"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119:B129">
+  <conditionalFormatting sqref="B120:B129">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1153896"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B145">
+  <conditionalFormatting sqref="B136:B145">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2148362"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B151:B161">
+  <conditionalFormatting sqref="B152:B161">
     <cfRule priority="14" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="275029"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B167:B177">
+  <conditionalFormatting sqref="B168:B177">
     <cfRule priority="15" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="670925"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B183:B186">
+  <conditionalFormatting sqref="B184:B186">
     <cfRule priority="16" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2009362"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B192:B202">
+  <conditionalFormatting sqref="B193:B202">
     <cfRule priority="17" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="32267"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B208:B218">
+  <conditionalFormatting sqref="B209:B218">
     <cfRule priority="18" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="22021"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B224:B225">
+  <conditionalFormatting sqref="B225">
     <cfRule priority="19" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1624"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B231:B236">
+  <conditionalFormatting sqref="B232:B236">
     <cfRule priority="20" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6670"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B242:B252">
+  <conditionalFormatting sqref="B243:B252">
     <cfRule priority="21" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="88586"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B258:B259">
+  <conditionalFormatting sqref="B259">
     <cfRule priority="22" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5163"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B265:B275">
+  <conditionalFormatting sqref="B266:B275">
     <cfRule priority="23" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2972420"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B281:B282">
+  <conditionalFormatting sqref="B282">
     <cfRule priority="24" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="56462"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>

--- a/test/output/data_summary_properties_2016.xlsx
+++ b/test/output/data_summary_properties_2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>column</t>
   </si>
@@ -233,12 +233,99 @@
     <t>count</t>
   </si>
   <si>
+    <t>12584959</t>
+  </si>
+  <si>
+    <t>12650463</t>
+  </si>
+  <si>
+    <t>12791706</t>
+  </si>
+  <si>
+    <t>12644322</t>
+  </si>
+  <si>
+    <t>12591100</t>
+  </si>
+  <si>
+    <t>12593147</t>
+  </si>
+  <si>
+    <t>12595194</t>
+  </si>
+  <si>
+    <t>12597241</t>
+  </si>
+  <si>
+    <t>12599288</t>
+  </si>
+  <si>
+    <t>12601335</t>
+  </si>
+  <si>
     <t>99393/2973780</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>60590524.2621</t>
+  </si>
+  <si>
+    <t>60379203.3911</t>
+  </si>
+  <si>
+    <t>60590626.1021</t>
+  </si>
+  <si>
+    <t>60371371.031</t>
+  </si>
+  <si>
+    <t>60375766.011</t>
+  </si>
+  <si>
+    <t>60379201.162</t>
+  </si>
+  <si>
+    <t>60372741.001</t>
+  </si>
+  <si>
+    <t>60372766.032</t>
+  </si>
+  <si>
+    <t>60590626.225</t>
+  </si>
+  <si>
     <t>96771/2910091</t>
   </si>
   <si>
+    <t>6.03792033911e+13</t>
+  </si>
+  <si>
+    <t>6.0371371031e+13</t>
+  </si>
+  <si>
+    <t>6.0379200312e+13</t>
+  </si>
+  <si>
+    <t>6.0590626225e+13</t>
+  </si>
+  <si>
+    <t>6.0590524272e+13</t>
+  </si>
+  <si>
+    <t>6.0372766032e+13</t>
+  </si>
+  <si>
+    <t>6.0379201162e+13</t>
+  </si>
+  <si>
+    <t>6.1110072021e+13</t>
+  </si>
+  <si>
+    <t>6.0375766011e+13</t>
+  </si>
+  <si>
     <t>Distribution</t>
   </si>
   <si>
@@ -350,27 +437,99 @@
     <t>7/811519</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
     <t>8/6061</t>
   </si>
   <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>5/12629</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
     <t>12/1938488</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>1/17096</t>
   </si>
   <si>
+    <t>66.0</t>
+  </si>
+  <si>
     <t>3/2973780</t>
   </si>
   <si>
+    <t>6037.0</t>
+  </si>
+  <si>
+    <t>6059.0</t>
+  </si>
+  <si>
+    <t>6111.0</t>
+  </si>
+  <si>
     <t>1/69014</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>14/1806401</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
     <t>1/36939</t>
   </si>
   <si>
@@ -380,27 +539,27 @@
     <t>1/485459</t>
   </si>
   <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>240/2972940</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>010C</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>240/2972940</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>010C</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
     <t>0200</t>
   </si>
   <si>
@@ -416,7 +575,34 @@
     <t>15/2973780</t>
   </si>
   <si>
-    <t>LARE11</t>
+    <t>261.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>263.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>247.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>LARD2</t>
   </si>
   <si>
     <t>5638/1978629</t>
@@ -443,24 +629,111 @@
     <t>SCUR2</t>
   </si>
   <si>
-    <t>LARD2</t>
-  </si>
-  <si>
     <t>TORR-LO</t>
   </si>
   <si>
-    <t>LARA</t>
-  </si>
-  <si>
     <t>186/2922372</t>
   </si>
   <si>
+    <t>12447.0</t>
+  </si>
+  <si>
+    <t>46298.0</t>
+  </si>
+  <si>
+    <t>16764.0</t>
+  </si>
+  <si>
+    <t>52650.0</t>
+  </si>
+  <si>
+    <t>25218.0</t>
+  </si>
+  <si>
+    <t>54311.0</t>
+  </si>
+  <si>
+    <t>5534.0</t>
+  </si>
+  <si>
+    <t>47568.0</t>
+  </si>
+  <si>
+    <t>40227.0</t>
+  </si>
+  <si>
+    <t>3101.0</t>
+  </si>
+  <si>
+    <t>1286.0</t>
+  </si>
+  <si>
+    <t>2061.0</t>
+  </si>
+  <si>
     <t>528/1156402</t>
   </si>
   <si>
+    <t>118208.0</t>
+  </si>
+  <si>
+    <t>268496.0</t>
+  </si>
+  <si>
+    <t>48570.0</t>
+  </si>
+  <si>
+    <t>27080.0</t>
+  </si>
+  <si>
+    <t>37739.0</t>
+  </si>
+  <si>
+    <t>54300.0</t>
+  </si>
+  <si>
+    <t>33183.0</t>
+  </si>
+  <si>
+    <t>34213.0</t>
+  </si>
+  <si>
+    <t>51906.0</t>
+  </si>
+  <si>
     <t>405/2971237</t>
   </si>
   <si>
+    <t>96987.0</t>
+  </si>
+  <si>
+    <t>96193.0</t>
+  </si>
+  <si>
+    <t>97118.0</t>
+  </si>
+  <si>
+    <t>97319.0</t>
+  </si>
+  <si>
+    <t>96964.0</t>
+  </si>
+  <si>
+    <t>97318.0</t>
+  </si>
+  <si>
+    <t>96368.0</t>
+  </si>
+  <si>
+    <t>96990.0</t>
+  </si>
+  <si>
+    <t>96962.0</t>
+  </si>
+  <si>
+    <t>97328.0</t>
+  </si>
+  <si>
     <t>1/1624</t>
   </si>
   <si>
@@ -470,10 +743,64 @@
     <t>168/2925289</t>
   </si>
   <si>
+    <t>1955.0</t>
+  </si>
+  <si>
+    <t>1950.0</t>
+  </si>
+  <si>
+    <t>1954.0</t>
+  </si>
+  <si>
+    <t>1953.0</t>
+  </si>
+  <si>
+    <t>1956.0</t>
+  </si>
+  <si>
+    <t>1964.0</t>
+  </si>
+  <si>
+    <t>1951.0</t>
+  </si>
+  <si>
+    <t>1963.0</t>
+  </si>
+  <si>
+    <t>1952.0</t>
+  </si>
+  <si>
     <t>1/5163</t>
   </si>
   <si>
     <t>14/2973778</t>
+  </si>
+  <si>
+    <t>2015.0</t>
+  </si>
+  <si>
+    <t>2014.0</t>
+  </si>
+  <si>
+    <t>2012.0</t>
+  </si>
+  <si>
+    <t>2004.0</t>
+  </si>
+  <si>
+    <t>2013.0</t>
+  </si>
+  <si>
+    <t>2003.0</t>
+  </si>
+  <si>
+    <t>2001.0</t>
+  </si>
+  <si>
+    <t>2010.0</t>
+  </si>
+  <si>
+    <t>2009.0</t>
   </si>
   <si>
     <t>Y</t>
@@ -2464,7 +2791,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>14034972</v>
+        <v>14071007</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="3" spans="1:2">
@@ -2492,80 +2819,80 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="6" spans="1:2">
-      <c r="A6" s="6" t="n">
-        <v>12584959</v>
+      <c r="A6" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="7" spans="1:2">
-      <c r="A7" s="6" t="n">
-        <v>12650463</v>
+      <c r="A7" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="8" spans="1:2">
-      <c r="A8" s="6" t="n">
-        <v>12791706</v>
+      <c r="A8" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:2">
-      <c r="A9" s="6" t="n">
-        <v>12644322</v>
+      <c r="A9" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:2">
-      <c r="A10" s="6" t="n">
-        <v>12591100</v>
+      <c r="A10" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="11" spans="1:2">
-      <c r="A11" s="6" t="n">
-        <v>12593147</v>
+      <c r="A11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B11" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="12" spans="1:2">
-      <c r="A12" s="6" t="n">
-        <v>12595194</v>
+      <c r="A12" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="13" spans="1:2">
-      <c r="A13" s="6" t="n">
-        <v>12597241</v>
+      <c r="A13" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B13" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="14" spans="1:2">
-      <c r="A14" s="6" t="n">
-        <v>12599288</v>
+      <c r="A14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="15" spans="1:2">
-      <c r="A15" s="10" t="n">
-        <v>12601335</v>
+      <c r="A15" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="11" t="n">
         <v>1</v>
@@ -2588,7 +2915,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>60590992.273001</v>
+        <v>60590994.12300699</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="19" spans="1:2">
@@ -2604,7 +2931,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="21" spans="1:2">
@@ -2616,83 +2943,83 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="22" spans="1:2">
-      <c r="A22" s="6" t="n">
-        <v>60590524.262052</v>
+      <c r="A22" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="7" t="n">
+        <v>11437</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>1518</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="23" spans="1:2">
-      <c r="A23" s="6" t="n">
-        <v>60379203.391054</v>
-      </c>
-      <c r="B23" s="7" t="n">
+    <row customHeight="1" ht="25" r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="7" t="n">
         <v>1455</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="24" spans="1:2">
-      <c r="A24" s="6" t="n">
-        <v>60590626.102134</v>
-      </c>
-      <c r="B24" s="7" t="n">
+    <row customHeight="1" ht="25" r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="7" t="n">
         <v>895</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="25" spans="1:2">
-      <c r="A25" s="6" t="n">
-        <v>60371371.031</v>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row customHeight="1" ht="25" r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>886</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="26" spans="1:2">
-      <c r="A26" s="6" t="n">
-        <v>60375766.01100501</v>
-      </c>
-      <c r="B26" s="7" t="n">
+    <row customHeight="1" ht="25" r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>825</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="27" spans="1:2">
-      <c r="A27" s="6" t="n">
-        <v>60379201.16200601</v>
-      </c>
-      <c r="B27" s="7" t="n">
+    <row customHeight="1" ht="25" r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="7" t="n">
         <v>816</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="28" spans="1:2">
-      <c r="A28" s="6" t="n">
-        <v>60372741.001015</v>
-      </c>
-      <c r="B28" s="7" t="n">
+    <row customHeight="1" ht="25" r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="7" t="n">
         <v>812</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="29" spans="1:2">
-      <c r="A29" s="6" t="n">
-        <v>60372766.032001</v>
-      </c>
-      <c r="B29" s="7" t="n">
+    <row customHeight="1" ht="25" r="30" spans="1:2">
+      <c r="A30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="7" t="n">
         <v>800</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="30" spans="1:2">
-      <c r="A30" s="6" t="n">
-        <v>60590626.225003</v>
-      </c>
-      <c r="B30" s="7" t="n">
+    <row customHeight="1" ht="25" r="31" spans="1:2">
+      <c r="A31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="11" t="n">
         <v>793</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="31" spans="1:2">
-      <c r="A31" s="10" t="n">
-        <v>60590524.272002</v>
-      </c>
-      <c r="B31" s="11" t="n">
-        <v>790</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" spans="1:2">
@@ -2712,7 +3039,7 @@
         <v>65</v>
       </c>
       <c r="B34" s="7" t="n">
-        <v>61110013021012</v>
+        <v>60372011201000</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="35" spans="1:2">
@@ -2728,7 +3055,7 @@
         <v>67</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="37" spans="1:2">
@@ -2740,83 +3067,83 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="38" spans="1:2">
-      <c r="A38" s="6" t="n">
-        <v>60379203391054</v>
+      <c r="A38" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="7" t="n">
+        <v>75126</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="7" t="n">
         <v>1171</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="39" spans="1:2">
-      <c r="A39" s="6" t="n">
-        <v>60371371031000</v>
-      </c>
-      <c r="B39" s="7" t="n">
+    <row customHeight="1" ht="25" r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="7" t="n">
         <v>881</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="40" spans="1:2">
-      <c r="A40" s="6" t="n">
-        <v>60379200312000</v>
-      </c>
-      <c r="B40" s="7" t="n">
+    <row customHeight="1" ht="25" r="41" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="7" t="n">
         <v>811</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="41" spans="1:2">
-      <c r="A41" s="6" t="n">
-        <v>60590626225003</v>
-      </c>
-      <c r="B41" s="7" t="n">
+    <row customHeight="1" ht="25" r="42" spans="1:2">
+      <c r="A42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="7" t="n">
         <v>807</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="42" spans="1:2">
-      <c r="A42" s="6" t="n">
-        <v>60590524272002</v>
-      </c>
-      <c r="B42" s="7" t="n">
+    <row customHeight="1" ht="25" r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="7" t="n">
         <v>806</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="43" spans="1:2">
-      <c r="A43" s="6" t="n">
-        <v>60372766032001</v>
-      </c>
-      <c r="B43" s="7" t="n">
+    <row customHeight="1" ht="25" r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="7" t="n">
         <v>800</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="44" spans="1:2">
-      <c r="A44" s="6" t="n">
-        <v>60379201162006</v>
-      </c>
-      <c r="B44" s="7" t="n">
+    <row customHeight="1" ht="25" r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="7" t="n">
         <v>779</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="45" spans="1:2">
-      <c r="A45" s="6" t="n">
-        <v>61110072021000</v>
-      </c>
-      <c r="B45" s="7" t="n">
+    <row customHeight="1" ht="25" r="46" spans="1:2">
+      <c r="A46" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="7" t="n">
         <v>765</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="46" spans="1:2">
-      <c r="A46" s="6" t="n">
-        <v>60375766011005</v>
-      </c>
-      <c r="B46" s="7" t="n">
+    <row customHeight="1" ht="25" r="47" spans="1:2">
+      <c r="A47" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="11" t="n">
         <v>753</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="47" spans="1:2">
-      <c r="A47" s="10" t="n">
-        <v>60590524173014</v>
-      </c>
-      <c r="B47" s="11" t="n">
-        <v>723</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="48" spans="1:2">
@@ -2837,7 +3164,7 @@
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1518"/>
+        <cfvo type="num" val="11437"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
@@ -2846,7 +3173,7 @@
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1171"/>
+        <cfvo type="num" val="75126"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
@@ -2883,7 +3210,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="2" spans="1:3">
@@ -2891,7 +3218,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>2048</v>
+        <v>912</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -2911,13 +3238,13 @@
         <v>67</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C4" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>20</v>
@@ -2926,7 +3253,7 @@
     </row>
     <row customHeight="1" ht="35" r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>646.8832923832924</v>
@@ -2935,7 +3262,7 @@
     </row>
     <row customHeight="1" ht="35" r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>534</v>
@@ -2944,7 +3271,7 @@
     </row>
     <row customHeight="1" ht="35" r="8" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B8" s="16" t="n">
         <v>8516</v>
@@ -2964,7 +3291,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="11" spans="1:3">
@@ -2972,7 +3299,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="14" t="n">
         <v/>
@@ -2992,13 +3319,13 @@
         <v>67</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C13" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="14" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B14" s="3" t="n">
         <v>0</v>
@@ -3007,7 +3334,7 @@
     </row>
     <row customHeight="1" ht="35" r="15" spans="1:3">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B15" s="3" t="n">
         <v>2.209142733681826</v>
@@ -3016,7 +3343,7 @@
     </row>
     <row customHeight="1" ht="35" r="16" spans="1:3">
       <c r="A16" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>2</v>
@@ -3025,7 +3352,7 @@
     </row>
     <row customHeight="1" ht="35" r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B17" s="16" t="n">
         <v>20</v>
@@ -3045,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="20" spans="1:3">
@@ -3073,13 +3400,13 @@
         <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C22" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="23" spans="1:3">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0</v>
@@ -3088,7 +3415,7 @@
     </row>
     <row customHeight="1" ht="35" r="24" spans="1:3">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>3.088948797938776</v>
@@ -3097,7 +3424,7 @@
     </row>
     <row customHeight="1" ht="35" r="25" spans="1:3">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B25" s="3" t="n">
         <v>3</v>
@@ -3106,7 +3433,7 @@
     </row>
     <row customHeight="1" ht="35" r="26" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B26" s="16" t="n">
         <v>20</v>
@@ -3126,7 +3453,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="29" spans="1:3">
@@ -3154,13 +3481,13 @@
         <v>67</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C31" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="32" spans="1:3">
       <c r="A32" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B32" s="3" t="n">
         <v>1</v>
@@ -3169,7 +3496,7 @@
     </row>
     <row customHeight="1" ht="35" r="33" spans="1:3">
       <c r="A33" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>2.299262508730685</v>
@@ -3178,7 +3505,7 @@
     </row>
     <row customHeight="1" ht="35" r="34" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>2</v>
@@ -3187,7 +3514,7 @@
     </row>
     <row customHeight="1" ht="35" r="35" spans="1:3">
       <c r="A35" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B35" s="16" t="n">
         <v>20</v>
@@ -3207,7 +3534,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="38" spans="1:3">
@@ -3215,7 +3542,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1107</v>
+        <v>1205</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -3235,13 +3562,13 @@
         <v>67</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C40" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="41" spans="1:3">
       <c r="A41" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B41" s="3" t="n">
         <v>3</v>
@@ -3250,7 +3577,7 @@
     </row>
     <row customHeight="1" ht="35" r="42" spans="1:3">
       <c r="A42" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B42" s="3" t="n">
         <v>1380.630396069397</v>
@@ -3259,7 +3586,7 @@
     </row>
     <row customHeight="1" ht="35" r="43" spans="1:3">
       <c r="A43" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="n">
         <v>1283</v>
@@ -3268,7 +3595,7 @@
     </row>
     <row customHeight="1" ht="35" r="44" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B44" s="16" t="n">
         <v>31303</v>
@@ -3288,7 +3615,7 @@
         <v>18</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="47" spans="1:3">
@@ -3296,7 +3623,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>1160</v>
+        <v>1418</v>
       </c>
       <c r="C47" s="14" t="n">
         <v/>
@@ -3316,13 +3643,13 @@
         <v>67</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C49" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="50" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B50" s="3" t="n">
         <v>1</v>
@@ -3331,7 +3658,7 @@
     </row>
     <row customHeight="1" ht="35" r="51" spans="1:3">
       <c r="A51" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B51" s="3" t="n">
         <v>1827.162123692507</v>
@@ -3340,7 +3667,7 @@
     </row>
     <row customHeight="1" ht="35" r="52" spans="1:3">
       <c r="A52" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B52" s="3" t="n">
         <v>1572</v>
@@ -3349,7 +3676,7 @@
     </row>
     <row customHeight="1" ht="35" r="53" spans="1:3">
       <c r="A53" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B53" s="16" t="n">
         <v>952576</v>
@@ -3369,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="56" spans="1:3">
@@ -3377,7 +3704,7 @@
         <v>65</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1148</v>
+        <v>749</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -3397,13 +3724,13 @@
         <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C58" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="59" spans="1:3">
       <c r="A59" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B59" s="3" t="n">
         <v>1</v>
@@ -3412,7 +3739,7 @@
     </row>
     <row customHeight="1" ht="35" r="60" spans="1:3">
       <c r="A60" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B60" s="3" t="n">
         <v>1760.00060793213</v>
@@ -3421,7 +3748,7 @@
     </row>
     <row customHeight="1" ht="35" r="61" spans="1:3">
       <c r="A61" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="n">
         <v>1539</v>
@@ -3430,7 +3757,7 @@
     </row>
     <row customHeight="1" ht="35" r="62" spans="1:3">
       <c r="A62" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B62" s="16" t="n">
         <v>290345</v>
@@ -3450,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="65" spans="1:3">
@@ -3458,7 +3785,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1120</v>
+        <v>1680</v>
       </c>
       <c r="C65" s="14" t="n">
         <v/>
@@ -3478,13 +3805,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C67" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="68" spans="1:3">
       <c r="A68" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3" t="n">
         <v>120</v>
@@ -3493,7 +3820,7 @@
     </row>
     <row customHeight="1" ht="35" r="69" spans="1:3">
       <c r="A69" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B69" s="3" t="n">
         <v>1178.900677789364</v>
@@ -3502,7 +3829,7 @@
     </row>
     <row customHeight="1" ht="35" r="70" spans="1:3">
       <c r="A70" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B70" s="3" t="n">
         <v>1296</v>
@@ -3511,7 +3838,7 @@
     </row>
     <row customHeight="1" ht="35" r="71" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B71" s="16" t="n">
         <v>2688</v>
@@ -3531,7 +3858,7 @@
         <v>21</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="74" spans="1:3">
@@ -3539,7 +3866,7 @@
         <v>65</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>2080</v>
+        <v>3177</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -3559,13 +3886,13 @@
         <v>67</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C76" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="77" spans="1:3">
       <c r="A77" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B77" s="3" t="n">
         <v>112</v>
@@ -3574,7 +3901,7 @@
     </row>
     <row customHeight="1" ht="35" r="78" spans="1:3">
       <c r="A78" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B78" s="3" t="n">
         <v>2739.18723466703</v>
@@ -3583,7 +3910,7 @@
     </row>
     <row customHeight="1" ht="35" r="79" spans="1:3">
       <c r="A79" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B79" s="3" t="n">
         <v>2172</v>
@@ -3592,7 +3919,7 @@
     </row>
     <row customHeight="1" ht="35" r="80" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B80" s="16" t="n">
         <v>820242</v>
@@ -3612,7 +3939,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="83" spans="1:3">
@@ -3620,7 +3947,7 @@
         <v>65</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1388</v>
+        <v>5426</v>
       </c>
       <c r="C83" s="14" t="n">
         <v/>
@@ -3640,13 +3967,13 @@
         <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C85" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="86" spans="1:3">
       <c r="A86" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B86" s="3" t="n">
         <v>3</v>
@@ -3655,7 +3982,7 @@
     </row>
     <row customHeight="1" ht="35" r="87" spans="1:3">
       <c r="A87" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B87" s="3" t="n">
         <v>1388.944577909105</v>
@@ -3664,7 +3991,7 @@
     </row>
     <row customHeight="1" ht="35" r="88" spans="1:3">
       <c r="A88" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B88" s="3" t="n">
         <v>1284</v>
@@ -3673,7 +4000,7 @@
     </row>
     <row customHeight="1" ht="35" r="89" spans="1:3">
       <c r="A89" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B89" s="16" t="n">
         <v>31303</v>
@@ -3693,7 +4020,7 @@
         <v>23</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="92" spans="1:3">
@@ -3701,7 +4028,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>4467</v>
+        <v>1410</v>
       </c>
       <c r="C92" s="14" t="n">
         <v/>
@@ -3721,13 +4048,13 @@
         <v>67</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C94" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="95" spans="1:3">
       <c r="A95" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B95" s="3" t="n">
         <v>117</v>
@@ -3736,7 +4063,7 @@
     </row>
     <row customHeight="1" ht="35" r="96" spans="1:3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B96" s="3" t="n">
         <v>2414.339439116404</v>
@@ -3745,7 +4072,7 @@
     </row>
     <row customHeight="1" ht="35" r="97" spans="1:3">
       <c r="A97" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B97" s="3" t="n">
         <v>1992</v>
@@ -3754,7 +4081,7 @@
     </row>
     <row customHeight="1" ht="35" r="98" spans="1:3">
       <c r="A98" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B98" s="16" t="n">
         <v>952576</v>
@@ -3774,7 +4101,7 @@
         <v>25</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="101" spans="1:3">
@@ -3802,13 +4129,13 @@
         <v>67</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C103" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="104" spans="1:3">
       <c r="A104" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3" t="n">
         <v>1</v>
@@ -3817,7 +4144,7 @@
     </row>
     <row customHeight="1" ht="35" r="105" spans="1:3">
       <c r="A105" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3" t="n">
         <v>1.168710037519551</v>
@@ -3826,7 +4153,7 @@
     </row>
     <row customHeight="1" ht="35" r="106" spans="1:3">
       <c r="A106" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3" t="n">
         <v>1</v>
@@ -3835,7 +4162,7 @@
     </row>
     <row customHeight="1" ht="35" r="107" spans="1:3">
       <c r="A107" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B107" s="16" t="n">
         <v>9</v>
@@ -3855,7 +4182,7 @@
         <v>26</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="110" spans="1:3">
@@ -3883,13 +4210,13 @@
         <v>67</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="C112" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="113" spans="1:3">
       <c r="A113" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B113" s="3" t="n">
         <v>1</v>
@@ -3898,7 +4225,7 @@
     </row>
     <row customHeight="1" ht="35" r="114" spans="1:3">
       <c r="A114" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B114" s="3" t="n">
         <v>2.24416510141599</v>
@@ -3907,7 +4234,7 @@
     </row>
     <row customHeight="1" ht="35" r="115" spans="1:3">
       <c r="A115" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B115" s="3" t="n">
         <v>2</v>
@@ -3916,7 +4243,7 @@
     </row>
     <row customHeight="1" ht="35" r="116" spans="1:3">
       <c r="A116" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B116" s="16" t="n">
         <v>20</v>
@@ -3936,7 +4263,7 @@
         <v>27</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="119" spans="1:3">
@@ -3944,7 +4271,7 @@
         <v>65</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="14" t="n">
         <v/>
@@ -3964,13 +4291,13 @@
         <v>67</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C121" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="122" spans="1:3">
       <c r="A122" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B122" s="3" t="n">
         <v>0</v>
@@ -3979,7 +4306,7 @@
     </row>
     <row customHeight="1" ht="35" r="123" spans="1:3">
       <c r="A123" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B123" s="3" t="n">
         <v>1.823516558413254</v>
@@ -3988,7 +4315,7 @@
     </row>
     <row customHeight="1" ht="35" r="124" spans="1:3">
       <c r="A124" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B124" s="3" t="n">
         <v>2</v>
@@ -3997,7 +4324,7 @@
     </row>
     <row customHeight="1" ht="35" r="125" spans="1:3">
       <c r="A125" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B125" s="16" t="n">
         <v>25</v>
@@ -4017,7 +4344,7 @@
         <v>28</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="128" spans="1:3">
@@ -4025,7 +4352,7 @@
         <v>65</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="C128" s="14" t="n">
         <v/>
@@ -4045,13 +4372,13 @@
         <v>67</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C130" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="131" spans="1:3">
       <c r="A131" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B131" s="3" t="n">
         <v>0</v>
@@ -4060,7 +4387,7 @@
     </row>
     <row customHeight="1" ht="35" r="132" spans="1:3">
       <c r="A132" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B132" s="3" t="n">
         <v>383.7693573970272</v>
@@ -4069,7 +4396,7 @@
     </row>
     <row customHeight="1" ht="35" r="133" spans="1:3">
       <c r="A133" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B133" s="3" t="n">
         <v>441</v>
@@ -4078,7 +4405,7 @@
     </row>
     <row customHeight="1" ht="35" r="134" spans="1:3">
       <c r="A134" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B134" s="16" t="n">
         <v>7749</v>
@@ -4098,7 +4425,7 @@
         <v>31</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="137" spans="1:3">
@@ -4106,7 +4433,7 @@
         <v>65</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>33607600</v>
+        <v>34194810</v>
       </c>
       <c r="C137" s="14" t="n">
         <v/>
@@ -4126,13 +4453,13 @@
         <v>67</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C139" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="140" spans="1:3">
       <c r="A140" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B140" s="3" t="n">
         <v>33324388</v>
@@ -4141,7 +4468,7 @@
     </row>
     <row customHeight="1" ht="35" r="141" spans="1:3">
       <c r="A141" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B141" s="3" t="n">
         <v>34001468.65372119</v>
@@ -4150,7 +4477,7 @@
     </row>
     <row customHeight="1" ht="35" r="142" spans="1:3">
       <c r="A142" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B142" s="3" t="n">
         <v>34008249</v>
@@ -4159,7 +4486,7 @@
     </row>
     <row customHeight="1" ht="35" r="143" spans="1:3">
       <c r="A143" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B143" s="16" t="n">
         <v>34819650</v>
@@ -4179,7 +4506,7 @@
         <v>32</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="146" spans="1:3">
@@ -4187,7 +4514,7 @@
         <v>65</v>
       </c>
       <c r="B146" s="3" t="n">
-        <v>-117741000</v>
+        <v>-118217794</v>
       </c>
       <c r="C146" s="14" t="n">
         <v/>
@@ -4207,13 +4534,13 @@
         <v>67</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C148" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="149" spans="1:3">
       <c r="A149" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B149" s="3" t="n">
         <v>-119475780</v>
@@ -4222,7 +4549,7 @@
     </row>
     <row customHeight="1" ht="35" r="150" spans="1:3">
       <c r="A150" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B150" s="3" t="n">
         <v>-118201934.1594264</v>
@@ -4231,7 +4558,7 @@
     </row>
     <row customHeight="1" ht="35" r="151" spans="1:3">
       <c r="A151" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B151" s="3" t="n">
         <v>-118172540.5</v>
@@ -4240,7 +4567,7 @@
     </row>
     <row customHeight="1" ht="35" r="152" spans="1:3">
       <c r="A152" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B152" s="16" t="n">
         <v>-117554316</v>
@@ -4260,7 +4587,7 @@
         <v>33</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="155" spans="1:3">
@@ -4268,7 +4595,7 @@
         <v>65</v>
       </c>
       <c r="B155" s="3" t="n">
-        <v>3600</v>
+        <v>45164</v>
       </c>
       <c r="C155" s="14" t="n">
         <v/>
@@ -4288,13 +4615,13 @@
         <v>67</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C157" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="158" spans="1:3">
       <c r="A158" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B158" s="3" t="n">
         <v>100</v>
@@ -4303,7 +4630,7 @@
     </row>
     <row customHeight="1" ht="35" r="159" spans="1:3">
       <c r="A159" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B159" s="3" t="n">
         <v>22822.80552774815</v>
@@ -4312,7 +4639,7 @@
     </row>
     <row customHeight="1" ht="35" r="160" spans="1:3">
       <c r="A160" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B160" s="3" t="n">
         <v>7000</v>
@@ -4321,7 +4648,7 @@
     </row>
     <row customHeight="1" ht="35" r="161" spans="1:3">
       <c r="A161" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B161" s="16" t="n">
         <v>328263808</v>
@@ -4341,7 +4668,7 @@
         <v>34</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="164" spans="1:3">
@@ -4369,13 +4696,13 @@
         <v>67</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C166" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="167" spans="1:3">
       <c r="A167" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B167" s="3" t="n">
         <v>1</v>
@@ -4384,7 +4711,7 @@
     </row>
     <row customHeight="1" ht="35" r="168" spans="1:3">
       <c r="A168" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B168" s="3" t="n">
         <v>1</v>
@@ -4393,7 +4720,7 @@
     </row>
     <row customHeight="1" ht="35" r="169" spans="1:3">
       <c r="A169" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B169" s="3" t="n">
         <v>1</v>
@@ -4402,7 +4729,7 @@
     </row>
     <row customHeight="1" ht="35" r="170" spans="1:3">
       <c r="A170" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B170" s="16" t="n">
         <v>1</v>
@@ -4422,7 +4749,7 @@
         <v>35</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="173" spans="1:3">
@@ -4430,7 +4757,7 @@
         <v>65</v>
       </c>
       <c r="B173" s="3" t="n">
-        <v>410</v>
+        <v>480</v>
       </c>
       <c r="C173" s="14" t="n">
         <v/>
@@ -4450,13 +4777,13 @@
         <v>67</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C175" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="176" spans="1:3">
       <c r="A176" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B176" s="3" t="n">
         <v>19</v>
@@ -4465,7 +4792,7 @@
     </row>
     <row customHeight="1" ht="35" r="177" spans="1:3">
       <c r="A177" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B177" s="3" t="n">
         <v>519.7109799713877</v>
@@ -4474,7 +4801,7 @@
     </row>
     <row customHeight="1" ht="35" r="178" spans="1:3">
       <c r="A178" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B178" s="3" t="n">
         <v>495</v>
@@ -4483,7 +4810,7 @@
     </row>
     <row customHeight="1" ht="35" r="179" spans="1:3">
       <c r="A179" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B179" s="16" t="n">
         <v>17410</v>
@@ -4503,7 +4830,7 @@
         <v>47</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="182" spans="1:3">
@@ -4511,7 +4838,7 @@
         <v>65</v>
       </c>
       <c r="B182" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C182" s="14" t="n">
         <v/>
@@ -4531,13 +4858,13 @@
         <v>67</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C184" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="185" spans="1:3">
       <c r="A185" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B185" s="3" t="n">
         <v>0</v>
@@ -4546,7 +4873,7 @@
     </row>
     <row customHeight="1" ht="35" r="186" spans="1:3">
       <c r="A186" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B186" s="3" t="n">
         <v>1.475018343891299</v>
@@ -4555,7 +4882,7 @@
     </row>
     <row customHeight="1" ht="35" r="187" spans="1:3">
       <c r="A187" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B187" s="3" t="n">
         <v>0</v>
@@ -4564,7 +4891,7 @@
     </row>
     <row customHeight="1" ht="35" r="188" spans="1:3">
       <c r="A188" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B188" s="16" t="n">
         <v>96</v>
@@ -4584,7 +4911,7 @@
         <v>49</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="191" spans="1:3">
@@ -4612,13 +4939,13 @@
         <v>67</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C193" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="194" spans="1:3">
       <c r="A194" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B194" s="3" t="n">
         <v>1</v>
@@ -4627,7 +4954,7 @@
     </row>
     <row customHeight="1" ht="35" r="195" spans="1:3">
       <c r="A195" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B195" s="3" t="n">
         <v>1.010008632003876</v>
@@ -4636,7 +4963,7 @@
     </row>
     <row customHeight="1" ht="35" r="196" spans="1:3">
       <c r="A196" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B196" s="3" t="n">
         <v>1</v>
@@ -4645,7 +4972,7 @@
     </row>
     <row customHeight="1" ht="35" r="197" spans="1:3">
       <c r="A197" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B197" s="16" t="n">
         <v>7</v>
@@ -4665,7 +4992,7 @@
         <v>51</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="200" spans="1:3">
@@ -4693,13 +5020,13 @@
         <v>67</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="C202" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="203" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B203" s="3" t="n">
         <v>1</v>
@@ -4708,7 +5035,7 @@
     </row>
     <row customHeight="1" ht="35" r="204" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B204" s="3" t="n">
         <v>1.181171080511153</v>
@@ -4717,7 +5044,7 @@
     </row>
     <row customHeight="1" ht="35" r="205" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B205" s="3" t="n">
         <v>1</v>
@@ -4726,7 +5053,7 @@
     </row>
     <row customHeight="1" ht="35" r="206" spans="1:3">
       <c r="A206" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B206" s="16" t="n">
         <v>997</v>
@@ -4746,7 +5073,7 @@
         <v>52</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="209" spans="1:3">
@@ -4754,7 +5081,7 @@
         <v>65</v>
       </c>
       <c r="B209" s="3" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="C209" s="14" t="n">
         <v/>
@@ -4774,13 +5101,13 @@
         <v>67</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C211" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="212" spans="1:3">
       <c r="A212" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B212" s="3" t="n">
         <v>10</v>
@@ -4789,7 +5116,7 @@
     </row>
     <row customHeight="1" ht="35" r="213" spans="1:3">
       <c r="A213" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B213" s="3" t="n">
         <v>319.8033974239313</v>
@@ -4798,7 +5125,7 @@
     </row>
     <row customHeight="1" ht="35" r="214" spans="1:3">
       <c r="A214" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B214" s="3" t="n">
         <v>270</v>
@@ -4807,7 +5134,7 @@
     </row>
     <row customHeight="1" ht="35" r="215" spans="1:3">
       <c r="A215" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B215" s="16" t="n">
         <v>7983</v>
@@ -4827,7 +5154,7 @@
         <v>53</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="218" spans="1:3">
@@ -4835,7 +5162,7 @@
         <v>65</v>
       </c>
       <c r="B218" s="3" t="n">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="C218" s="14" t="n">
         <v/>
@@ -4855,13 +5182,13 @@
         <v>67</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C220" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="221" spans="1:3">
       <c r="A221" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B221" s="3" t="n">
         <v>10</v>
@@ -4870,7 +5197,7 @@
     </row>
     <row customHeight="1" ht="35" r="222" spans="1:3">
       <c r="A222" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B222" s="3" t="n">
         <v>278.2965621458255</v>
@@ -4879,7 +5206,7 @@
     </row>
     <row customHeight="1" ht="35" r="223" spans="1:3">
       <c r="A223" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B223" s="3" t="n">
         <v>168</v>
@@ -4888,7 +5215,7 @@
     </row>
     <row customHeight="1" ht="35" r="224" spans="1:3">
       <c r="A224" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B224" s="16" t="n">
         <v>6141</v>
@@ -4908,7 +5235,7 @@
         <v>55</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="227" spans="1:3">
@@ -4936,13 +5263,13 @@
         <v>67</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="C229" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="230" spans="1:3">
       <c r="A230" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B230" s="3" t="n">
         <v>1</v>
@@ -4951,7 +5278,7 @@
     </row>
     <row customHeight="1" ht="35" r="231" spans="1:3">
       <c r="A231" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B231" s="3" t="n">
         <v>1.40146378152357</v>
@@ -4960,7 +5287,7 @@
     </row>
     <row customHeight="1" ht="35" r="232" spans="1:3">
       <c r="A232" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B232" s="3" t="n">
         <v>1</v>
@@ -4969,7 +5296,7 @@
     </row>
     <row customHeight="1" ht="35" r="233" spans="1:3">
       <c r="A233" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B233" s="16" t="n">
         <v>41</v>
@@ -4989,7 +5316,7 @@
         <v>57</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="236" spans="1:3">
@@ -4997,7 +5324,7 @@
         <v>65</v>
       </c>
       <c r="B236" s="3" t="n">
-        <v>34653</v>
+        <v>54392</v>
       </c>
       <c r="C236" s="14" t="n">
         <v/>
@@ -5017,13 +5344,13 @@
         <v>67</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C238" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="239" spans="1:3">
       <c r="A239" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B239" s="3" t="n">
         <v>1</v>
@@ -5032,7 +5359,7 @@
     </row>
     <row customHeight="1" ht="35" r="240" spans="1:3">
       <c r="A240" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B240" s="3" t="n">
         <v>170883.5771659952</v>
@@ -5041,7 +5368,7 @@
     </row>
     <row customHeight="1" ht="35" r="241" spans="1:3">
       <c r="A241" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B241" s="3" t="n">
         <v>122590</v>
@@ -5050,7 +5377,7 @@
     </row>
     <row customHeight="1" ht="35" r="242" spans="1:3">
       <c r="A242" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B242" s="16" t="n">
         <v>251486000</v>
@@ -5070,7 +5397,7 @@
         <v>58</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="245" spans="1:3">
@@ -5078,7 +5405,7 @@
         <v>65</v>
       </c>
       <c r="B245" s="3" t="n">
-        <v>229447</v>
+        <v>409717</v>
       </c>
       <c r="C245" s="14" t="n">
         <v/>
@@ -5098,13 +5425,13 @@
         <v>67</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C247" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="248" spans="1:3">
       <c r="A248" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B248" s="3" t="n">
         <v>1</v>
@@ -5113,7 +5440,7 @@
     </row>
     <row customHeight="1" ht="35" r="249" spans="1:3">
       <c r="A249" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B249" s="3" t="n">
         <v>420478.990678524</v>
@@ -5122,7 +5449,7 @@
     </row>
     <row customHeight="1" ht="35" r="250" spans="1:3">
       <c r="A250" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B250" s="3" t="n">
         <v>306086</v>
@@ -5131,7 +5458,7 @@
     </row>
     <row customHeight="1" ht="35" r="251" spans="1:3">
       <c r="A251" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B251" s="16" t="n">
         <v>282786000</v>
@@ -5151,7 +5478,7 @@
         <v>60</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="254" spans="1:3">
@@ -5159,7 +5486,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="3" t="n">
-        <v>511535</v>
+        <v>169765</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -5179,13 +5506,13 @@
         <v>67</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C256" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="257" spans="1:3">
       <c r="A257" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B257" s="3" t="n">
         <v>1</v>
@@ -5194,7 +5521,7 @@
     </row>
     <row customHeight="1" ht="35" r="258" spans="1:3">
       <c r="A258" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B258" s="3" t="n">
         <v>252478.0294685421</v>
@@ -5203,7 +5530,7 @@
     </row>
     <row customHeight="1" ht="35" r="259" spans="1:3">
       <c r="A259" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B259" s="3" t="n">
         <v>167042</v>
@@ -5212,7 +5539,7 @@
     </row>
     <row customHeight="1" ht="35" r="260" spans="1:3">
       <c r="A260" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B260" s="16" t="n">
         <v>90246219</v>
@@ -5232,7 +5559,7 @@
         <v>61</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="263" spans="1:3">
@@ -5240,7 +5567,7 @@
         <v>65</v>
       </c>
       <c r="B263" s="3" t="n">
-        <v>2204.48</v>
+        <v>5911.06</v>
       </c>
       <c r="C263" s="14" t="n">
         <v/>
@@ -5260,13 +5587,13 @@
         <v>67</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C265" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="266" spans="1:3">
       <c r="A266" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B266" s="3" t="n">
         <v>1.34</v>
@@ -5275,7 +5602,7 @@
     </row>
     <row customHeight="1" ht="35" r="267" spans="1:3">
       <c r="A267" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B267" s="3" t="n">
         <v>5377.60713933839</v>
@@ -5284,7 +5611,7 @@
     </row>
     <row customHeight="1" ht="35" r="268" spans="1:3">
       <c r="A268" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B268" s="3" t="n">
         <v>3991.78</v>
@@ -5293,7 +5620,7 @@
     </row>
     <row customHeight="1" ht="35" r="269" spans="1:3">
       <c r="A269" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B269" s="16" t="n">
         <v>3458861.12</v>
@@ -5313,7 +5640,7 @@
         <v>63</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row customHeight="1" ht="35" r="272" spans="1:3">
@@ -5341,13 +5668,13 @@
         <v>67</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C274" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="35" r="275" spans="1:3">
       <c r="A275" s="6" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B275" s="3" t="n">
         <v>0</v>
@@ -5356,7 +5683,7 @@
     </row>
     <row customHeight="1" ht="35" r="276" spans="1:3">
       <c r="A276" s="6" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B276" s="3" t="n">
         <v>13.89240932275432</v>
@@ -5365,7 +5692,7 @@
     </row>
     <row customHeight="1" ht="35" r="277" spans="1:3">
       <c r="A277" s="6" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B277" s="3" t="n">
         <v>14</v>
@@ -5374,7 +5701,7 @@
     </row>
     <row customHeight="1" ht="35" r="278" spans="1:3">
       <c r="A278" s="10" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B278" s="16" t="n">
         <v>99</v>
@@ -5431,7 +5758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B283"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5473,7 +5800,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="5" spans="1:2">
@@ -5485,775 +5812,779 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="6" spans="1:2">
-      <c r="A6" s="6" t="n">
-        <v>1</v>
+      <c r="A6" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="n">
+        <v>2173698</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="7" t="n">
         <v>742364</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="7" spans="1:2">
-      <c r="A7" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row customHeight="1" ht="25" r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="7" t="n">
         <v>58457</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="8" spans="1:2">
-      <c r="A8" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="n">
+    <row customHeight="1" ht="25" r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>8795</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="9" spans="1:2">
-      <c r="A9" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row customHeight="1" ht="25" r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="7" t="n">
         <v>1818</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="10" spans="1:2">
-      <c r="A10" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="n">
+    <row customHeight="1" ht="25" r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="7" t="n">
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="11" spans="1:2">
-      <c r="A11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row customHeight="1" ht="25" r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="7" t="n">
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="12" spans="1:2">
-      <c r="A12" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="n">
+    <row customHeight="1" ht="25" r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="11" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="13" spans="1:2">
-      <c r="A13" s="12" t="s"/>
-      <c r="B13" s="12" t="n"/>
-    </row>
     <row customHeight="1" ht="25" r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="12" t="s"/>
+      <c r="B14" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7" t="n">
-        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>0.9979696618369787</v>
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="17" spans="1:2">
       <c r="A17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>0.9979696618369787</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="19" spans="1:2">
-      <c r="A19" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="n">
+    <row customHeight="1" ht="25" r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>2979156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="7" t="n">
         <v>5251</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="20" spans="1:2">
-      <c r="A20" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="n">
+    <row customHeight="1" ht="25" r="22" spans="1:2">
+      <c r="A22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="7" t="n">
         <v>380</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="21" spans="1:2">
-      <c r="A21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7" t="n">
+    <row customHeight="1" ht="25" r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>201</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="22" spans="1:2">
-      <c r="A22" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="n">
+    <row customHeight="1" ht="25" r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="23" spans="1:2">
-      <c r="A23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="7" t="n">
+      <c r="B24" s="7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="7" t="n">
         <v>58</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="24" spans="1:2">
-      <c r="A24" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B24" s="7" t="n">
+    <row customHeight="1" ht="25" r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="7" t="n">
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="25" spans="1:2">
-      <c r="A25" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B25" s="7" t="n">
+    <row customHeight="1" ht="25" r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="26" spans="1:2">
-      <c r="A26" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" s="11" t="n">
+    <row customHeight="1" ht="25" r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" s="11" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="27" spans="1:2">
-      <c r="A27" s="12" t="s"/>
-      <c r="B27" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+    <row customHeight="1" ht="25" r="29" spans="1:2">
+      <c r="A29" s="12" t="s"/>
+      <c r="B29" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="29" spans="1:2">
-      <c r="A29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="30" spans="1:2">
-      <c r="A30" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v>0.9957694867743283</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="31" spans="1:2">
       <c r="A31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="7" t="n">
+        <v>0.9957694867743283</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="33" spans="1:2">
+      <c r="A33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="32" spans="1:2">
-      <c r="A32" s="8" t="s">
+      <c r="B33" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="33" spans="1:2">
-      <c r="A33" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="7" t="n">
+    <row customHeight="1" ht="25" r="35" spans="1:2">
+      <c r="A35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>2972588</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="36" spans="1:2">
+      <c r="A36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="7" t="n">
         <v>9265</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="34" spans="1:2">
-      <c r="A34" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7" t="n">
+    <row customHeight="1" ht="25" r="37" spans="1:2">
+      <c r="A37" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="7" t="n">
         <v>3161</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="35" spans="1:2">
-      <c r="A35" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" s="7" t="n">
+    <row customHeight="1" ht="25" r="38" spans="1:2">
+      <c r="A38" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="7" t="n">
         <v>81</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="36" spans="1:2">
-      <c r="A36" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" s="7" t="n">
+    <row customHeight="1" ht="25" r="39" spans="1:2">
+      <c r="A39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="7" t="n">
         <v>65</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="37" spans="1:2">
-      <c r="A37" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B37" s="11" t="n">
+    <row customHeight="1" ht="25" r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="11" t="n">
         <v>57</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="38" spans="1:2">
-      <c r="A38" s="12" t="s"/>
-      <c r="B38" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+    <row customHeight="1" ht="25" r="41" spans="1:2">
+      <c r="A41" s="12" t="s"/>
+      <c r="B41" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="40" spans="1:2">
-      <c r="A40" s="6" t="s">
+    <row customHeight="1" ht="25" r="43" spans="1:2">
+      <c r="A43" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="B43" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="44" spans="1:2">
+      <c r="A44" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B44" s="7" t="n">
         <v>0.3506374913448503</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="42" spans="1:2">
-      <c r="A42" s="6" t="s">
+    <row customHeight="1" ht="25" r="45" spans="1:2">
+      <c r="A45" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="43" spans="1:2">
-      <c r="A43" s="8" t="s">
+      <c r="B45" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="46" spans="1:2">
+      <c r="A46" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="44" spans="1:2">
-      <c r="A44" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B44" s="7" t="n">
+    <row customHeight="1" ht="25" r="47" spans="1:2">
+      <c r="A47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="7" t="n">
         <v>1133238</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="45" spans="1:2">
-      <c r="A45" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B45" s="7" t="n">
+    <row customHeight="1" ht="25" r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="7" t="n">
+        <v>1046729</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="49" spans="1:2">
+      <c r="A49" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="7" t="n">
         <v>692160</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="46" spans="1:2">
-      <c r="A46" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7" t="n">
+    <row customHeight="1" ht="25" r="50" spans="1:2">
+      <c r="A50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="7" t="n">
         <v>69467</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="47" spans="1:2">
-      <c r="A47" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B47" s="7" t="n">
+    <row customHeight="1" ht="25" r="51" spans="1:2">
+      <c r="A51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="7" t="n">
         <v>39713</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="48" spans="1:2">
-      <c r="A48" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B48" s="7" t="n">
+    <row customHeight="1" ht="25" r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="7" t="n">
         <v>3692</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="49" spans="1:2">
-      <c r="A49" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B49" s="7" t="n">
+    <row customHeight="1" ht="25" r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="7" t="n">
         <v>94</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="50" spans="1:2">
-      <c r="A50" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B50" s="7" t="n">
+    <row customHeight="1" ht="25" r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="7" t="n">
         <v>51</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="51" spans="1:2">
-      <c r="A51" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B51" s="7" t="n">
+    <row customHeight="1" ht="25" r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="7" t="n">
         <v>25</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="52" spans="1:2">
-      <c r="A52" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B52" s="7" t="n">
+    <row customHeight="1" ht="25" r="56" spans="1:2">
+      <c r="A56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="11" t="n">
         <v>21</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="53" spans="1:2">
-      <c r="A53" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B53" s="11" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="54" spans="1:2">
-      <c r="A54" s="12" t="s"/>
-      <c r="B54" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+    <row customHeight="1" ht="25" r="57" spans="1:2">
+      <c r="A57" s="12" t="s"/>
+      <c r="B57" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
+    <row customHeight="1" ht="25" r="59" spans="1:2">
+      <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B59" s="7" t="n">
         <v>66</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
+    <row customHeight="1" ht="25" r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B60" s="7" t="n">
         <v>0.9942731131438686</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
+    <row customHeight="1" ht="25" r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
+      <c r="B61" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="62" spans="1:2">
+      <c r="A62" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="60" spans="1:2">
-      <c r="A60" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="B60" s="11" t="n">
-        <v>17096</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="61" spans="1:2">
-      <c r="A61" s="12" t="s"/>
-      <c r="B61" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="63" spans="1:2">
       <c r="A63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="7" t="n">
+        <v>2968121</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="64" spans="1:2">
+      <c r="A64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>17096</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="65" spans="1:2">
+      <c r="A65" s="12" t="s"/>
+      <c r="B65" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="7" t="n">
+      <c r="B67" s="7" t="n">
         <v>6059</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="64" spans="1:2">
-      <c r="A64" s="6" t="s">
+    <row customHeight="1" ht="25" r="68" spans="1:2">
+      <c r="A68" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="7" t="n">
+      <c r="B68" s="7" t="n">
         <v>0.003831212270330767</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="65" spans="1:2">
-      <c r="A65" s="6" t="s">
+    <row customHeight="1" ht="25" r="69" spans="1:2">
+      <c r="A69" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="66" spans="1:2">
-      <c r="A66" s="8" t="s">
+      <c r="B69" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="70" spans="1:2">
+      <c r="A70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="67" spans="1:2">
-      <c r="A67" s="6" t="n">
-        <v>6037</v>
-      </c>
-      <c r="B67" s="7" t="n">
+    <row customHeight="1" ht="25" r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="7" t="n">
         <v>2009362</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="68" spans="1:2">
-      <c r="A68" s="6" t="n">
-        <v>6059</v>
-      </c>
-      <c r="B68" s="7" t="n">
-        <v>741565</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="69" spans="1:2">
-      <c r="A69" s="10" t="n">
-        <v>6111</v>
-      </c>
-      <c r="B69" s="11" t="n">
-        <v>222853</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="70" spans="1:2">
-      <c r="A70" s="12" t="s"/>
-      <c r="B70" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B72" s="7" t="b">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="B72" s="7" t="n">
+        <v>741565</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="73" spans="1:2">
       <c r="A73" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="7" t="n">
+        <v>222853</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="74" spans="1:2">
+      <c r="A74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>11437</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="75" spans="1:2">
+      <c r="A75" s="12" t="s"/>
+      <c r="B75" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="78" spans="1:2">
+      <c r="A78" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="7" t="n">
+      <c r="B78" s="7" t="n">
         <v>0.9768814126410241</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="75" spans="1:2">
-      <c r="A75" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="76" spans="1:2">
-      <c r="A76" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="11" t="n">
-        <v>69014</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="77" spans="1:2">
-      <c r="A77" s="12" t="s"/>
-      <c r="B77" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="7" t="n">
-        <v>7</v>
+        <v>67</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="7" t="n">
-        <v>0.3948845259825333</v>
+      <c r="A80" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="81" spans="1:2">
       <c r="A81" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="7" t="n">
+        <v>2916203</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="82" spans="1:2">
+      <c r="A82" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>69014</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="83" spans="1:2">
+      <c r="A83" s="12" t="s"/>
+      <c r="B83" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="85" spans="1:2">
+      <c r="A85" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="7" t="n">
+        <v>0.3948845259825333</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="87" spans="1:2">
+      <c r="A87" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="82" spans="1:2">
-      <c r="A82" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="88" spans="1:2">
+      <c r="A88" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B88" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="83" spans="1:2">
-      <c r="A83" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B83" s="7" t="n">
+    <row customHeight="1" ht="25" r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="7" t="n">
+        <v>1178816</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="90" spans="1:2">
+      <c r="A90" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" s="7" t="n">
         <v>1156830</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="84" spans="1:2">
-      <c r="A84" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B84" s="7" t="n">
+    <row customHeight="1" ht="25" r="91" spans="1:2">
+      <c r="A91" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="7" t="n">
         <v>595453</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="85" spans="1:2">
-      <c r="A85" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B85" s="7" t="n">
+    <row customHeight="1" ht="25" r="92" spans="1:2">
+      <c r="A92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B92" s="7" t="n">
         <v>27480</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="86" spans="1:2">
-      <c r="A86" s="6" t="n">
-        <v>24</v>
-      </c>
-      <c r="B86" s="7" t="n">
+    <row customHeight="1" ht="25" r="93" spans="1:2">
+      <c r="A93" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="7" t="n">
         <v>21107</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="87" spans="1:2">
-      <c r="A87" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="B87" s="7" t="n">
+    <row customHeight="1" ht="25" r="94" spans="1:2">
+      <c r="A94" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="7" t="n">
         <v>3216</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="88" spans="1:2">
-      <c r="A88" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B88" s="7" t="n">
-        <v>1342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="89" spans="1:2">
-      <c r="A89" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="B89" s="7" t="n">
-        <v>586</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="90" spans="1:2">
-      <c r="A90" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" s="7" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="91" spans="1:2">
-      <c r="A91" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B91" s="7" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="92" spans="1:2">
-      <c r="A92" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B92" s="11" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="93" spans="1:2">
-      <c r="A93" s="12" t="s"/>
-      <c r="B93" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="94" spans="1:2">
-      <c r="A94" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="95" spans="1:2">
       <c r="A95" s="6" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B95" s="7" t="n">
-        <v>1</v>
+        <v>1342</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="96" spans="1:2">
       <c r="A96" s="6" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="B96" s="7" t="n">
-        <v>0.9876260251767291</v>
+        <v>586</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="97" spans="1:2">
       <c r="A97" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
+      </c>
+      <c r="B97" s="7" t="n">
+        <v>262</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="98" spans="1:2">
-      <c r="A98" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>70</v>
+      <c r="A98" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="11" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="99" spans="1:2">
-      <c r="A99" s="10" t="n">
+      <c r="A99" s="12" t="s"/>
+      <c r="B99" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="101" spans="1:2">
+      <c r="A101" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="7" t="n">
         <v>1</v>
-      </c>
-      <c r="B99" s="11" t="n">
-        <v>36939</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="100" spans="1:2">
-      <c r="A100" s="12" t="s"/>
-      <c r="B100" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="101" spans="1:2">
-      <c r="A101" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="102" spans="1:2">
       <c r="A102" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B102" s="7" t="n">
-        <v>1</v>
+        <v>0.9876260251767291</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="103" spans="1:2">
       <c r="A103" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103" s="7" t="n">
-        <v>0.9892553874642949</v>
+        <v>67</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>170</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>118</v>
+      <c r="A104" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>70</v>
+      <c r="A105" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="7" t="n">
+        <v>2948278</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="106" spans="1:2">
-      <c r="A106" s="10" t="n">
-        <v>1</v>
+      <c r="A106" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B106" s="11" t="n">
-        <v>32075</v>
+        <v>36939</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="107" spans="1:2">
@@ -6265,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="109" spans="1:2">
@@ -6281,7 +6612,7 @@
         <v>66</v>
       </c>
       <c r="B110" s="7" t="n">
-        <v>0.8373789912090143</v>
+        <v>0.9892553874642949</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="111" spans="1:2">
@@ -6289,7 +6620,7 @@
         <v>67</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="112" spans="1:2">
@@ -6301,575 +6632,575 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="113" spans="1:2">
-      <c r="A113" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" s="11" t="n">
-        <v>485459</v>
+      <c r="A113" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="7" t="n">
+        <v>2953142</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="114" spans="1:2">
-      <c r="A114" s="12" t="s"/>
-      <c r="B114" s="12" t="n"/>
+      <c r="A114" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="11" t="n">
+        <v>32075</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="115" spans="1:2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="12" t="s"/>
+      <c r="B115" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="116" spans="1:2">
-      <c r="A116" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>120</v>
+      <c r="B116" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="117" spans="1:2">
       <c r="A117" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B117" s="7" t="n">
-        <v>0.004112598849597868</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="118" spans="1:2">
       <c r="A118" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="7" t="n">
+        <v>0.8373789912090143</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="119" spans="1:2">
+      <c r="A119" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="119" spans="1:2">
-      <c r="A119" s="8" t="s">
+      <c r="B119" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="120" spans="1:2">
+      <c r="A120" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B120" s="9" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="120" spans="1:2">
-      <c r="A120" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="7" t="n">
-        <v>1153896</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="121" spans="1:2">
       <c r="A121" s="6" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="B121" s="7" t="n">
-        <v>522145</v>
+        <v>2499758</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="122" spans="1:2">
-      <c r="A122" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="7" t="n">
-        <v>247494</v>
+      <c r="A122" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="11" t="n">
+        <v>485459</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="123" spans="1:2">
-      <c r="A123" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="7" t="n">
-        <v>225410</v>
-      </c>
+      <c r="A123" s="12" t="s"/>
+      <c r="B123" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="124" spans="1:2">
-      <c r="A124" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" s="7" t="n">
-        <v>126491</v>
+      <c r="A124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="125" spans="1:2">
       <c r="A125" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" s="7" t="n">
-        <v>123249</v>
+        <v>65</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>173</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="126" spans="1:2">
       <c r="A126" s="6" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B126" s="7" t="n">
-        <v>104612</v>
+        <v>0.004112598849597868</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="127" spans="1:2">
       <c r="A127" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="7" t="n">
-        <v>60503</v>
+        <v>67</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="128" spans="1:2">
-      <c r="A128" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="7" t="n">
-        <v>60167</v>
+      <c r="A128" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="129" spans="1:2">
-      <c r="A129" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" s="11" t="n">
-        <v>50978</v>
+      <c r="A129" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129" s="7" t="n">
+        <v>1153896</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="130" spans="1:2">
-      <c r="A130" s="12" t="s"/>
-      <c r="B130" s="12" t="n"/>
+      <c r="A130" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="7" t="n">
+        <v>522145</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="131" spans="1:2">
-      <c r="A131" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>40</v>
+      <c r="A131" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B131" s="7" t="n">
+        <v>247494</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="132" spans="1:2">
       <c r="A132" s="6" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="B132" s="7" t="n">
-        <v>261</v>
+        <v>225410</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="133" spans="1:2">
       <c r="A133" s="6" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="B133" s="7" t="n">
-        <v>0.003831212270330767</v>
+        <v>126491</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="134" spans="1:2">
       <c r="A134" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B134" s="7" t="n">
+        <v>123249</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="135" spans="1:2">
+      <c r="A135" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135" s="7" t="n">
+        <v>104612</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="136" spans="1:2">
+      <c r="A136" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="7" t="n">
+        <v>60503</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="137" spans="1:2">
+      <c r="A137" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="7" t="n">
+        <v>60167</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="138" spans="1:2">
+      <c r="A138" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B138" s="11" t="n">
+        <v>50978</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="139" spans="1:2">
+      <c r="A139" s="12" t="s"/>
+      <c r="B139" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="140" spans="1:2">
+      <c r="A140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="141" spans="1:2">
+      <c r="A141" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="7" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="142" spans="1:2">
+      <c r="A142" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="7" t="n">
+        <v>0.003831212270330767</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="143" spans="1:2">
+      <c r="A143" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="135" spans="1:2">
-      <c r="A135" s="8" t="s">
+      <c r="B143" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="144" spans="1:2">
+      <c r="A144" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B144" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="136" spans="1:2">
-      <c r="A136" s="6" t="n">
-        <v>261</v>
-      </c>
-      <c r="B136" s="7" t="n">
+    <row customHeight="1" ht="25" r="145" spans="1:2">
+      <c r="A145" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B145" s="7" t="n">
         <v>2148362</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="137" spans="1:2">
-      <c r="A137" s="6" t="n">
-        <v>266</v>
-      </c>
-      <c r="B137" s="7" t="n">
+    <row customHeight="1" ht="25" r="146" spans="1:2">
+      <c r="A146" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="7" t="n">
         <v>481067</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="138" spans="1:2">
-      <c r="A138" s="6" t="n">
-        <v>246</v>
-      </c>
-      <c r="B138" s="7" t="n">
+    <row customHeight="1" ht="25" r="147" spans="1:2">
+      <c r="A147" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B147" s="7" t="n">
         <v>114888</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="139" spans="1:2">
-      <c r="A139" s="6" t="n">
-        <v>269</v>
-      </c>
-      <c r="B139" s="7" t="n">
-        <v>61469</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="140" spans="1:2">
-      <c r="A140" s="6" t="n">
-        <v>263</v>
-      </c>
-      <c r="B140" s="7" t="n">
-        <v>58438</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="141" spans="1:2">
-      <c r="A141" s="6" t="n">
-        <v>248</v>
-      </c>
-      <c r="B141" s="7" t="n">
-        <v>40325</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="142" spans="1:2">
-      <c r="A142" s="6" t="n">
-        <v>247</v>
-      </c>
-      <c r="B142" s="7" t="n">
-        <v>40022</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="143" spans="1:2">
-      <c r="A143" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="B143" s="7" t="n">
-        <v>9462</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="144" spans="1:2">
-      <c r="A144" s="6" t="n">
-        <v>265</v>
-      </c>
-      <c r="B144" s="7" t="n">
-        <v>9421</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="145" spans="1:2">
-      <c r="A145" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="B145" s="11" t="n">
-        <v>4314</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="146" spans="1:2">
-      <c r="A146" s="12" t="s"/>
-      <c r="B146" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="147" spans="1:2">
-      <c r="A147" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="148" spans="1:2">
       <c r="A148" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>132</v>
+        <v>188</v>
+      </c>
+      <c r="B148" s="7" t="n">
+        <v>61469</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="149" spans="1:2">
       <c r="A149" s="6" t="s">
-        <v>66</v>
+        <v>189</v>
       </c>
       <c r="B149" s="7" t="n">
-        <v>0.3371908976801352</v>
+        <v>58438</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="150" spans="1:2">
       <c r="A150" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>133</v>
+        <v>190</v>
+      </c>
+      <c r="B150" s="7" t="n">
+        <v>40325</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="151" spans="1:2">
-      <c r="A151" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>70</v>
+      <c r="A151" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" s="7" t="n">
+        <v>40022</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="152" spans="1:2">
       <c r="A152" s="6" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="B152" s="7" t="n">
-        <v>275029</v>
+        <v>11437</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="153" spans="1:2">
       <c r="A153" s="6" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B153" s="7" t="n">
-        <v>67105</v>
+        <v>9462</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="154" spans="1:2">
-      <c r="A154" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B154" s="7" t="n">
-        <v>54859</v>
+      <c r="A154" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B154" s="11" t="n">
+        <v>9421</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="155" spans="1:2">
-      <c r="A155" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B155" s="7" t="n">
-        <v>52750</v>
-      </c>
+      <c r="A155" s="12" t="s"/>
+      <c r="B155" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="156" spans="1:2">
-      <c r="A156" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B156" s="7" t="n">
-        <v>48808</v>
+      <c r="A156" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="157" spans="1:2">
       <c r="A157" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B157" s="7" t="n">
-        <v>39895</v>
+        <v>65</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="158" spans="1:2">
       <c r="A158" s="6" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="B158" s="7" t="n">
-        <v>30459</v>
+        <v>0.3371908976801352</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="159" spans="1:2">
       <c r="A159" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B159" s="7" t="n">
-        <v>30377</v>
+        <v>67</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="160" spans="1:2">
-      <c r="A160" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B160" s="7" t="n">
-        <v>26632</v>
+      <c r="A160" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="161" spans="1:2">
-      <c r="A161" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B161" s="11" t="n">
-        <v>26103</v>
+      <c r="A161" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="7" t="n">
+        <v>1006588</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="162" spans="1:2">
-      <c r="A162" s="12" t="s"/>
-      <c r="B162" s="12" t="n"/>
+      <c r="A162" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B162" s="7" t="n">
+        <v>275029</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="163" spans="1:2">
-      <c r="A163" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>43</v>
+      <c r="A163" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" s="7" t="n">
+        <v>67105</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="164" spans="1:2">
       <c r="A164" s="6" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B164" s="7" t="n">
-        <v>52650</v>
+        <v>54859</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="165" spans="1:2">
       <c r="A165" s="6" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="B165" s="7" t="n">
-        <v>0.0210520709214774</v>
+        <v>52750</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="166" spans="1:2">
       <c r="A166" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B166" s="7" t="n">
+        <v>48808</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="167" spans="1:2">
+      <c r="A167" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B167" s="7" t="n">
+        <v>39895</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="168" spans="1:2">
+      <c r="A168" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" s="7" t="n">
+        <v>30459</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="169" spans="1:2">
+      <c r="A169" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B169" s="7" t="n">
+        <v>30377</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="170" spans="1:2">
+      <c r="A170" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="11" t="n">
+        <v>26632</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="171" spans="1:2">
+      <c r="A171" s="12" t="s"/>
+      <c r="B171" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="172" spans="1:2">
+      <c r="A172" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="173" spans="1:2">
+      <c r="A173" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B173" s="7" t="n">
+        <v>12447</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="174" spans="1:2">
+      <c r="A174" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B174" s="7" t="n">
+        <v>0.0210520709214774</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="175" spans="1:2">
+      <c r="A175" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="167" spans="1:2">
-      <c r="A167" s="8" t="s">
+      <c r="B175" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="176" spans="1:2">
+      <c r="A176" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="168" spans="1:2">
-      <c r="A168" s="6" t="n">
-        <v>12447</v>
-      </c>
-      <c r="B168" s="7" t="n">
+    <row customHeight="1" ht="25" r="177" spans="1:2">
+      <c r="A177" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177" s="7" t="n">
         <v>670925</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="169" spans="1:2">
-      <c r="A169" s="6" t="n">
-        <v>46298</v>
-      </c>
-      <c r="B169" s="7" t="n">
+    <row customHeight="1" ht="25" r="178" spans="1:2">
+      <c r="A178" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B178" s="7" t="n">
         <v>93470</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="170" spans="1:2">
-      <c r="A170" s="6" t="n">
-        <v>16764</v>
-      </c>
-      <c r="B170" s="7" t="n">
-        <v>59802</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="171" spans="1:2">
-      <c r="A171" s="6" t="n">
-        <v>52650</v>
-      </c>
-      <c r="B171" s="7" t="n">
-        <v>58234</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="172" spans="1:2">
-      <c r="A172" s="6" t="n">
-        <v>25218</v>
-      </c>
-      <c r="B172" s="7" t="n">
-        <v>56962</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="173" spans="1:2">
-      <c r="A173" s="6" t="n">
-        <v>54311</v>
-      </c>
-      <c r="B173" s="7" t="n">
-        <v>54277</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="174" spans="1:2">
-      <c r="A174" s="6" t="n">
-        <v>5534</v>
-      </c>
-      <c r="B174" s="7" t="n">
-        <v>49074</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="175" spans="1:2">
-      <c r="A175" s="6" t="n">
-        <v>47568</v>
-      </c>
-      <c r="B175" s="7" t="n">
-        <v>47758</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="176" spans="1:2">
-      <c r="A176" s="6" t="n">
-        <v>40227</v>
-      </c>
-      <c r="B176" s="7" t="n">
-        <v>46231</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="177" spans="1:2">
-      <c r="A177" s="10" t="n">
-        <v>13150</v>
-      </c>
-      <c r="B177" s="11" t="n">
-        <v>41995</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="178" spans="1:2">
-      <c r="A178" s="12" t="s"/>
-      <c r="B178" s="12" t="n"/>
-    </row>
     <row customHeight="1" ht="25" r="179" spans="1:2">
-      <c r="A179" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>44</v>
+      <c r="A179" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" s="7" t="n">
+        <v>62845</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="180" spans="1:2">
       <c r="A180" s="6" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="B180" s="7" t="n">
-        <v>1286</v>
+        <v>59802</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="181" spans="1:2">
       <c r="A181" s="6" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="B181" s="7" t="n">
-        <v>0.003831212270330767</v>
+        <v>58234</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="182" spans="1:2">
       <c r="A182" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>114</v>
+        <v>209</v>
+      </c>
+      <c r="B182" s="7" t="n">
+        <v>56962</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="183" spans="1:2">
-      <c r="A183" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>70</v>
+      <c r="A183" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" s="7" t="n">
+        <v>54277</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="184" spans="1:2">
-      <c r="A184" s="6" t="n">
-        <v>3101</v>
+      <c r="A184" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B184" s="7" t="n">
-        <v>2009362</v>
+        <v>49074</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="185" spans="1:2">
-      <c r="A185" s="6" t="n">
-        <v>1286</v>
+      <c r="A185" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B185" s="7" t="n">
-        <v>741565</v>
+        <v>47758</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="186" spans="1:2">
-      <c r="A186" s="10" t="n">
-        <v>2061</v>
+      <c r="A186" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="B186" s="11" t="n">
-        <v>222853</v>
+        <v>46231</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="187" spans="1:2">
@@ -6881,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="189" spans="1:2">
@@ -6889,7 +7220,7 @@
         <v>65</v>
       </c>
       <c r="B189" s="7" t="n">
-        <v>276119</v>
+        <v>3101</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="190" spans="1:2">
@@ -6897,7 +7228,7 @@
         <v>66</v>
       </c>
       <c r="B190" s="7" t="n">
-        <v>0.6126238059075773</v>
+        <v>0.003831212270330767</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="191" spans="1:2">
@@ -6905,7 +7236,7 @@
         <v>67</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="192" spans="1:2">
@@ -6917,343 +7248,343 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="193" spans="1:2">
-      <c r="A193" s="6" t="n">
-        <v>118208</v>
+      <c r="A193" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B193" s="7" t="n">
+        <v>2009362</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="194" spans="1:2">
+      <c r="A194" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B194" s="7" t="n">
+        <v>741565</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="195" spans="1:2">
+      <c r="A195" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B195" s="7" t="n">
+        <v>222853</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="196" spans="1:2">
+      <c r="A196" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" s="11" t="n">
+        <v>11437</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="197" spans="1:2">
+      <c r="A197" s="12" t="s"/>
+      <c r="B197" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="198" spans="1:2">
+      <c r="A198" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="199" spans="1:2">
+      <c r="A199" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" s="7" t="n">
+        <v>403197</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="200" spans="1:2">
+      <c r="A200" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B200" s="7" t="n">
+        <v>0.6126238059075773</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="201" spans="1:2">
+      <c r="A201" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="202" spans="1:2">
+      <c r="A202" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="203" spans="1:2">
+      <c r="A203" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B203" s="7" t="n">
+        <v>1828815</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="204" spans="1:2">
+      <c r="A204" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B204" s="7" t="n">
         <v>32267</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="194" spans="1:2">
-      <c r="A194" s="6" t="n">
-        <v>268496</v>
-      </c>
-      <c r="B194" s="7" t="n">
-        <v>23186</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="195" spans="1:2">
-      <c r="A195" s="6" t="n">
-        <v>48570</v>
-      </c>
-      <c r="B195" s="7" t="n">
-        <v>21186</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="196" spans="1:2">
-      <c r="A196" s="6" t="n">
-        <v>27080</v>
-      </c>
-      <c r="B196" s="7" t="n">
-        <v>18891</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="197" spans="1:2">
-      <c r="A197" s="6" t="n">
-        <v>37739</v>
-      </c>
-      <c r="B197" s="7" t="n">
-        <v>18645</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="198" spans="1:2">
-      <c r="A198" s="6" t="n">
-        <v>54300</v>
-      </c>
-      <c r="B198" s="7" t="n">
-        <v>17749</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="199" spans="1:2">
-      <c r="A199" s="6" t="n">
-        <v>33183</v>
-      </c>
-      <c r="B199" s="7" t="n">
-        <v>16953</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="200" spans="1:2">
-      <c r="A200" s="6" t="n">
-        <v>34213</v>
-      </c>
-      <c r="B200" s="7" t="n">
-        <v>16607</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="201" spans="1:2">
-      <c r="A201" s="6" t="n">
-        <v>51906</v>
-      </c>
-      <c r="B201" s="7" t="n">
-        <v>15660</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="202" spans="1:2">
-      <c r="A202" s="10" t="n">
-        <v>41131</v>
-      </c>
-      <c r="B202" s="11" t="n">
-        <v>15451</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="203" spans="1:2">
-      <c r="A203" s="12" t="s"/>
-      <c r="B203" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="204" spans="1:2">
-      <c r="A204" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="205" spans="1:2">
       <c r="A205" s="6" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B205" s="7" t="n">
-        <v>97004</v>
+        <v>23186</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="206" spans="1:2">
       <c r="A206" s="6" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="B206" s="7" t="n">
-        <v>0.004683076640659624</v>
+        <v>21186</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="207" spans="1:2">
       <c r="A207" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B207" s="7" t="n">
+        <v>18891</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="208" spans="1:2">
+      <c r="A208" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B208" s="7" t="n">
+        <v>18645</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="209" spans="1:2">
+      <c r="A209" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B209" s="7" t="n">
+        <v>17749</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="210" spans="1:2">
+      <c r="A210" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B210" s="7" t="n">
+        <v>16953</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="211" spans="1:2">
+      <c r="A211" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211" s="7" t="n">
+        <v>16607</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="212" spans="1:2">
+      <c r="A212" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B212" s="11" t="n">
+        <v>15660</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="213" spans="1:2">
+      <c r="A213" s="12" t="s"/>
+      <c r="B213" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="214" spans="1:2">
+      <c r="A214" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="215" spans="1:2">
+      <c r="A215" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B215" s="7" t="n">
+        <v>96371</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="216" spans="1:2">
+      <c r="A216" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B216" s="7" t="n">
+        <v>0.004683076640659624</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="217" spans="1:2">
+      <c r="A217" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B207" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="208" spans="1:2">
-      <c r="A208" s="8" t="s">
+      <c r="B217" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="218" spans="1:2">
+      <c r="A218" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B218" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="209" spans="1:2">
-      <c r="A209" s="6" t="n">
-        <v>96987</v>
-      </c>
-      <c r="B209" s="7" t="n">
+    <row customHeight="1" ht="25" r="219" spans="1:2">
+      <c r="A219" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" s="7" t="n">
         <v>22021</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="210" spans="1:2">
-      <c r="A210" s="6" t="n">
-        <v>96193</v>
-      </c>
-      <c r="B210" s="7" t="n">
+    <row customHeight="1" ht="25" r="220" spans="1:2">
+      <c r="A220" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B220" s="7" t="n">
         <v>21759</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="211" spans="1:2">
-      <c r="A211" s="6" t="n">
-        <v>97118</v>
-      </c>
-      <c r="B211" s="7" t="n">
-        <v>20612</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="212" spans="1:2">
-      <c r="A212" s="6" t="n">
-        <v>97319</v>
-      </c>
-      <c r="B212" s="7" t="n">
-        <v>20310</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="213" spans="1:2">
-      <c r="A213" s="6" t="n">
-        <v>96964</v>
-      </c>
-      <c r="B213" s="7" t="n">
-        <v>19898</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="214" spans="1:2">
-      <c r="A214" s="6" t="n">
-        <v>97318</v>
-      </c>
-      <c r="B214" s="7" t="n">
-        <v>19862</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="215" spans="1:2">
-      <c r="A215" s="6" t="n">
-        <v>96368</v>
-      </c>
-      <c r="B215" s="7" t="n">
-        <v>19761</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="216" spans="1:2">
-      <c r="A216" s="6" t="n">
-        <v>96990</v>
-      </c>
-      <c r="B216" s="7" t="n">
-        <v>19147</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="217" spans="1:2">
-      <c r="A217" s="6" t="n">
-        <v>96962</v>
-      </c>
-      <c r="B217" s="7" t="n">
-        <v>17682</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="218" spans="1:2">
-      <c r="A218" s="10" t="n">
-        <v>97328</v>
-      </c>
-      <c r="B218" s="11" t="n">
-        <v>17304</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="219" spans="1:2">
-      <c r="A219" s="12" t="s"/>
-      <c r="B219" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="220" spans="1:2">
-      <c r="A220" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="221" spans="1:2">
       <c r="A221" s="6" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="B221" s="7" t="n">
-        <v>7</v>
+        <v>20612</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="222" spans="1:2">
       <c r="A222" s="6" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="B222" s="7" t="n">
-        <v>0.9994559859467502</v>
+        <v>20310</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="223" spans="1:2">
       <c r="A223" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B223" s="7" t="n">
+        <v>19898</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="224" spans="1:2">
+      <c r="A224" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B224" s="7" t="n">
+        <v>19862</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="225" spans="1:2">
+      <c r="A225" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B225" s="7" t="n">
+        <v>19761</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="226" spans="1:2">
+      <c r="A226" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B226" s="7" t="n">
+        <v>19147</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="227" spans="1:2">
+      <c r="A227" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B227" s="7" t="n">
+        <v>17682</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="228" spans="1:2">
+      <c r="A228" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B228" s="11" t="n">
+        <v>17304</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="229" spans="1:2">
+      <c r="A229" s="12" t="s"/>
+      <c r="B229" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="230" spans="1:2">
+      <c r="A230" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="231" spans="1:2">
+      <c r="A231" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B231" s="7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="232" spans="1:2">
+      <c r="A232" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B232" s="7" t="n">
+        <v>0.9994559859467502</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="233" spans="1:2">
+      <c r="A233" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B233" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="234" spans="1:2">
+      <c r="A234" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="235" spans="1:2">
+      <c r="A235" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B235" s="7" t="n">
+        <v>2983593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="236" spans="1:2">
+      <c r="A236" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="224" spans="1:2">
-      <c r="A224" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="225" spans="1:2">
-      <c r="A225" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B225" s="11" t="n">
+      <c r="B236" s="11" t="n">
         <v>1624</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="226" spans="1:2">
-      <c r="A226" s="12" t="s"/>
-      <c r="B226" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="227" spans="1:2">
-      <c r="A227" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="228" spans="1:2">
-      <c r="A228" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B228" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="229" spans="1:2">
-      <c r="A229" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B229" s="7" t="n">
-        <v>0.9977398627972439</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="230" spans="1:2">
-      <c r="A230" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="231" spans="1:2">
-      <c r="A231" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="232" spans="1:2">
-      <c r="A232" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B232" s="7" t="n">
-        <v>6670</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="233" spans="1:2">
-      <c r="A233" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B233" s="7" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="234" spans="1:2">
-      <c r="A234" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B234" s="7" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="235" spans="1:2">
-      <c r="A235" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B235" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="236" spans="1:2">
-      <c r="A236" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B236" s="11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="237" spans="1:2">
@@ -7265,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="239" spans="1:2">
@@ -7273,7 +7604,7 @@
         <v>65</v>
       </c>
       <c r="B239" s="7" t="n">
-        <v>1979</v>
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="240" spans="1:2">
@@ -7281,7 +7612,7 @@
         <v>66</v>
       </c>
       <c r="B240" s="7" t="n">
-        <v>0.0200749225265701</v>
+        <v>0.9977398627972439</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="241" spans="1:2">
@@ -7289,7 +7620,7 @@
         <v>67</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="242" spans="1:2">
@@ -7301,346 +7632,454 @@
       </c>
     </row>
     <row customHeight="1" ht="25" r="243" spans="1:2">
-      <c r="A243" s="6" t="n">
-        <v>1955</v>
+      <c r="A243" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B243" s="7" t="n">
-        <v>88586</v>
+        <v>2978470</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="244" spans="1:2">
-      <c r="A244" s="6" t="n">
-        <v>1950</v>
+      <c r="A244" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B244" s="7" t="n">
-        <v>76142</v>
+        <v>6670</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="245" spans="1:2">
-      <c r="A245" s="6" t="n">
-        <v>1954</v>
+      <c r="A245" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B245" s="7" t="n">
-        <v>73307</v>
+        <v>59</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="246" spans="1:2">
-      <c r="A246" s="6" t="n">
-        <v>1953</v>
+      <c r="A246" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B246" s="7" t="n">
-        <v>67085</v>
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="247" spans="1:2">
-      <c r="A247" s="6" t="n">
-        <v>1956</v>
+      <c r="A247" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B247" s="7" t="n">
-        <v>65736</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="248" spans="1:2">
-      <c r="A248" s="6" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B248" s="7" t="n">
-        <v>64929</v>
+      <c r="A248" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B248" s="11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="249" spans="1:2">
-      <c r="A249" s="6" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B249" s="7" t="n">
-        <v>56686</v>
-      </c>
+      <c r="A249" s="12" t="s"/>
+      <c r="B249" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="25" r="250" spans="1:2">
-      <c r="A250" s="6" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B250" s="7" t="n">
-        <v>54593</v>
+      <c r="A250" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="251" spans="1:2">
-      <c r="A251" s="6" t="n">
-        <v>1952</v>
+      <c r="A251" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B251" s="7" t="n">
-        <v>54405</v>
+        <v>1971</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="252" spans="1:2">
-      <c r="A252" s="10" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B252" s="11" t="n">
-        <v>53006</v>
+      <c r="A252" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B252" s="7" t="n">
+        <v>0.0200749225265701</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="253" spans="1:2">
-      <c r="A253" s="12" t="s"/>
-      <c r="B253" s="12" t="n"/>
+      <c r="A253" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="254" spans="1:2">
-      <c r="A254" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>56</v>
+      <c r="A254" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="255" spans="1:2">
       <c r="A255" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B255" s="7" t="b">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="B255" s="7" t="n">
+        <v>88586</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="256" spans="1:2">
       <c r="A256" s="6" t="s">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="B256" s="7" t="n">
-        <v>0.9982704774895761</v>
+        <v>76142</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="257" spans="1:2">
       <c r="A257" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>150</v>
+        <v>243</v>
+      </c>
+      <c r="B257" s="7" t="n">
+        <v>73307</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="258" spans="1:2">
-      <c r="A258" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B258" s="9" t="s">
-        <v>70</v>
+      <c r="A258" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B258" s="7" t="n">
+        <v>67085</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="259" spans="1:2">
-      <c r="A259" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B259" s="11" t="n">
-        <v>5163</v>
+      <c r="A259" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B259" s="7" t="n">
+        <v>65736</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="260" spans="1:2">
-      <c r="A260" s="12" t="s"/>
-      <c r="B260" s="12" t="n"/>
+      <c r="A260" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B260" s="7" t="n">
+        <v>64929</v>
+      </c>
     </row>
     <row customHeight="1" ht="25" r="261" spans="1:2">
-      <c r="A261" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>59</v>
+      <c r="A261" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B261" s="7" t="n">
+        <v>59928</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="262" spans="1:2">
       <c r="A262" s="6" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="B262" s="7" t="n">
-        <v>2015</v>
+        <v>56686</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="263" spans="1:2">
       <c r="A263" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B263" s="7" t="n">
+        <v>54593</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="264" spans="1:2">
+      <c r="A264" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B264" s="11" t="n">
+        <v>54405</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="265" spans="1:2">
+      <c r="A265" s="12" t="s"/>
+      <c r="B265" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="266" spans="1:2">
+      <c r="A266" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="267" spans="1:2">
+      <c r="A267" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B267" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="268" spans="1:2">
+      <c r="A268" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B263" s="7" t="n">
+      <c r="B268" s="7" t="n">
+        <v>0.9982704774895761</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="269" spans="1:2">
+      <c r="A269" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="270" spans="1:2">
+      <c r="A270" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="271" spans="1:2">
+      <c r="A271" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B271" s="7" t="n">
+        <v>2980054</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="272" spans="1:2">
+      <c r="A272" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B272" s="11" t="n">
+        <v>5163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="273" spans="1:2">
+      <c r="A273" s="12" t="s"/>
+      <c r="B273" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="274" spans="1:2">
+      <c r="A274" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="275" spans="1:2">
+      <c r="A275" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B275" s="7" t="n">
+        <v>2015</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="276" spans="1:2">
+      <c r="A276" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B276" s="7" t="n">
         <v>0.00383188223837664</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="264" spans="1:2">
-      <c r="A264" s="6" t="s">
+    <row customHeight="1" ht="25" r="277" spans="1:2">
+      <c r="A277" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B264" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="265" spans="1:2">
-      <c r="A265" s="8" t="s">
+      <c r="B277" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="278" spans="1:2">
+      <c r="A278" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B265" s="9" t="s">
+      <c r="B278" s="9" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="266" spans="1:2">
-      <c r="A266" s="6" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B266" s="7" t="n">
-        <v>2972420</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="267" spans="1:2">
-      <c r="A267" s="6" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B267" s="7" t="n">
-        <v>1306</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="268" spans="1:2">
-      <c r="A268" s="6" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B268" s="7" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="269" spans="1:2">
-      <c r="A269" s="6" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B269" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="270" spans="1:2">
-      <c r="A270" s="6" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B270" s="7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="271" spans="1:2">
-      <c r="A271" s="6" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B271" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="272" spans="1:2">
-      <c r="A272" s="6" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B272" s="7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="273" spans="1:2">
-      <c r="A273" s="6" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B273" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="274" spans="1:2">
-      <c r="A274" s="6" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B274" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="275" spans="1:2">
-      <c r="A275" s="10" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B275" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="276" spans="1:2">
-      <c r="A276" s="12" t="s"/>
-      <c r="B276" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="25" r="277" spans="1:2">
-      <c r="A277" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B277" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="278" spans="1:2">
-      <c r="A278" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="279" spans="1:2">
       <c r="A279" s="6" t="s">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c r="B279" s="7" t="n">
-        <v>0.9810861320969296</v>
+        <v>2972420</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="280" spans="1:2">
       <c r="A280" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B280" s="7" t="n">
+        <v>11439</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="281" spans="1:2">
+      <c r="A281" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B281" s="7" t="n">
+        <v>1306</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="282" spans="1:2">
+      <c r="A282" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B282" s="7" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="283" spans="1:2">
+      <c r="A283" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B283" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="284" spans="1:2">
+      <c r="A284" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B284" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="285" spans="1:2">
+      <c r="A285" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B285" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="286" spans="1:2">
+      <c r="A286" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B286" s="7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="287" spans="1:2">
+      <c r="A287" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B287" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="288" spans="1:2">
+      <c r="A288" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B288" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="289" spans="1:2">
+      <c r="A289" s="12" t="s"/>
+      <c r="B289" s="12" t="n"/>
+    </row>
+    <row customHeight="1" ht="25" r="290" spans="1:2">
+      <c r="A290" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="291" spans="1:2">
+      <c r="A291" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="292" spans="1:2">
+      <c r="A292" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B292" s="7" t="n">
+        <v>0.9810861320969296</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="293" spans="1:2">
+      <c r="A293" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B280" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="281" spans="1:2">
-      <c r="A281" s="8" t="s">
+      <c r="B293" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="294" spans="1:2">
+      <c r="A294" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B294" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="282" spans="1:2">
-      <c r="A282" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B282" s="11" t="n">
+    <row customHeight="1" ht="25" r="295" spans="1:2">
+      <c r="A295" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B295" s="7" t="n">
+        <v>2928755</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="296" spans="1:2">
+      <c r="A296" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B296" s="11" t="n">
         <v>56462</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="283" spans="1:2">
-      <c r="A283" s="12" t="s"/>
-      <c r="B283" s="12" t="n"/>
+    <row customHeight="1" ht="25" r="297" spans="1:2">
+      <c r="A297" s="12" t="s"/>
+      <c r="B297" s="12" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:B12">
+  <conditionalFormatting sqref="B6:B13">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="742364"/>
+        <cfvo type="num" val="2173698"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:B26">
+  <conditionalFormatting sqref="B20:B28">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5251"/>
+        <cfvo type="num" val="2979156"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B37">
+  <conditionalFormatting sqref="B35:B40">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="9265"/>
+        <cfvo type="num" val="2972588"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B53">
+  <conditionalFormatting sqref="B47:B56">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7649,16 +8088,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60">
+  <conditionalFormatting sqref="B63:B64">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="17096"/>
+        <cfvo type="num" val="2968121"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B67:B69">
+  <conditionalFormatting sqref="B71:B74">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7667,52 +8106,52 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B76">
+  <conditionalFormatting sqref="B81:B82">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="69014"/>
+        <cfvo type="num" val="2916203"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B83:B92">
+  <conditionalFormatting sqref="B89:B98">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1156830"/>
+        <cfvo type="num" val="1178816"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B105:B106">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="36939"/>
+        <cfvo type="num" val="2948278"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106">
+  <conditionalFormatting sqref="B113:B114">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="32075"/>
+        <cfvo type="num" val="2953142"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B113">
+  <conditionalFormatting sqref="B121:B122">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="485459"/>
+        <cfvo type="num" val="2499758"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120:B129">
+  <conditionalFormatting sqref="B129:B138">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7721,7 +8160,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136:B145">
+  <conditionalFormatting sqref="B145:B154">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7730,16 +8169,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B152:B161">
+  <conditionalFormatting sqref="B161:B170">
     <cfRule priority="14" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="275029"/>
+        <cfvo type="num" val="1006588"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B168:B177">
+  <conditionalFormatting sqref="B177:B186">
     <cfRule priority="15" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7748,7 +8187,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B186">
+  <conditionalFormatting sqref="B193:B196">
     <cfRule priority="16" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7757,16 +8196,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B193:B202">
+  <conditionalFormatting sqref="B203:B212">
     <cfRule priority="17" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="32267"/>
+        <cfvo type="num" val="1828815"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B218">
+  <conditionalFormatting sqref="B219:B228">
     <cfRule priority="18" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7775,25 +8214,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B225">
+  <conditionalFormatting sqref="B235:B236">
     <cfRule priority="19" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1624"/>
+        <cfvo type="num" val="2983593"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B232:B236">
+  <conditionalFormatting sqref="B243:B248">
     <cfRule priority="20" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="6670"/>
+        <cfvo type="num" val="2978470"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B243:B252">
+  <conditionalFormatting sqref="B255:B264">
     <cfRule priority="21" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7802,16 +8241,16 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B259">
+  <conditionalFormatting sqref="B271:B272">
     <cfRule priority="22" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5163"/>
+        <cfvo type="num" val="2980054"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B266:B275">
+  <conditionalFormatting sqref="B279:B288">
     <cfRule priority="23" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -7820,11 +8259,11 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B282">
+  <conditionalFormatting sqref="B295:B296">
     <cfRule priority="24" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="56462"/>
+        <cfvo type="num" val="2928755"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
